--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_21_34.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_21_34.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1048582.921138477</v>
+        <v>1044426.430653422</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>33936285.47690617</v>
+        <v>33936285.47690618</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6507879.333115953</v>
+        <v>6507879.333115955</v>
       </c>
     </row>
     <row r="9">
@@ -1369,22 +1369,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>220.2500618986509</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>395.4476524459058</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>266.4097384417204</v>
@@ -1423,7 +1423,7 @@
         <v>38.69418351668035</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>209.3908366544989</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -1432,13 +1432,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>58.51330741345021</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="12">
@@ -1530,16 +1530,16 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C13" t="n">
-        <v>170.8360944016073</v>
+        <v>125.7796531775001</v>
       </c>
       <c r="D13" t="n">
-        <v>3.81908085913583</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E13" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
         <v>163.066849283703</v>
@@ -1548,7 +1548,7 @@
         <v>130.781282966242</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>61.65479693373585</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>142.5131431297577</v>
       </c>
       <c r="T13" t="n">
         <v>239.7097330287659</v>
@@ -1590,13 +1590,13 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W13" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y13" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1609,19 +1609,19 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E14" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>18.8352601328687</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1657,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>38.69418351668034</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>209.3908366544989</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>295.4364424839624</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="15">
@@ -1767,25 +1767,25 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C16" t="n">
-        <v>105.1097290047693</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D16" t="n">
-        <v>164.2192128704925</v>
+        <v>122.7272296112195</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
-        <v>163.066849283703</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>61.65479693373585</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>142.5131431297577</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>239.7097330287659</v>
@@ -1846,19 +1846,19 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>183.3380077398877</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>395.4476524459058</v>
       </c>
       <c r="H17" t="n">
         <v>266.4097384417204</v>
@@ -1894,22 +1894,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>38.69418351668036</v>
+        <v>38.69418351668034</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>256.4751836067882</v>
+        <v>83.74704234339571</v>
       </c>
       <c r="V17" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y17" t="n">
         <v>404.2032624633431</v>
@@ -2007,22 +2007,22 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>122.7272296112195</v>
       </c>
       <c r="E19" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F19" t="n">
-        <v>42.58897791556416</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
-        <v>163.066849283703</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>130.781282966242</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>61.65479693373585</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2052,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>142.5131431297577</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>239.7097330287659</v>
@@ -2067,7 +2067,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y19" t="n">
         <v>225.1454739790328</v>
@@ -2083,16 +2083,16 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D20" t="n">
-        <v>25.52398020718183</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E20" t="n">
-        <v>429.4369973932878</v>
+        <v>375.3507143560404</v>
       </c>
       <c r="F20" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>395.4476524459058</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>38.69418351668035</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -2143,7 +2143,7 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -2253,7 +2253,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>55.70460663973518</v>
+        <v>163.066849283703</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2289,16 +2289,16 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>142.5131431297577</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>239.7097330287659</v>
       </c>
       <c r="U22" t="n">
         <v>275.6012973062951</v>
       </c>
       <c r="V22" t="n">
-        <v>284.0859530482738</v>
+        <v>79.52712050529779</v>
       </c>
       <c r="W22" t="n">
         <v>269.3061403695714</v>
@@ -2320,22 +2320,22 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D23" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G23" t="n">
-        <v>395.4476524459058</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>266.4097384417204</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,19 +2368,19 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>38.69418351668035</v>
       </c>
       <c r="T23" t="n">
-        <v>209.3908366544989</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>256.4751836067882</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>358.9907805655117</v>
+        <v>184.1823525554938</v>
       </c>
       <c r="W23" t="n">
-        <v>22.94914513433227</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -2475,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>189.9004325317972</v>
+        <v>153.508107942955</v>
       </c>
       <c r="C25" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>133.4480002385883</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>163.066849283703</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>130.781282966242</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>61.65479693373585</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>142.5131431297577</v>
       </c>
       <c r="T25" t="n">
         <v>239.7097330287659</v>
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C26" t="n">
         <v>433.7610480884109</v>
@@ -2566,7 +2566,7 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F26" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -2605,10 +2605,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>38.69418351668035</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>206.9642078073008</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -2617,13 +2617,13 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>240.70984838889</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2715,25 +2715,25 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C28" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>112.9650504095484</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E28" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
-        <v>163.066849283703</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>130.781282966242</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>61.65479693373585</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>142.5131431297577</v>
       </c>
       <c r="T28" t="n">
         <v>239.7097330287659</v>
@@ -2772,10 +2772,10 @@
         <v>275.6012973062951</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W28" t="n">
-        <v>269.3061403695714</v>
+        <v>231.7614521939396</v>
       </c>
       <c r="X28" t="n">
         <v>242.9378371199217</v>
@@ -2794,19 +2794,19 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F29" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>299.0471036548734</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2842,25 +2842,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>38.69418351668035</v>
       </c>
       <c r="T29" t="n">
-        <v>209.3908366544989</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>256.4751836067882</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>358.9907805655117</v>
+        <v>224.7975201240162</v>
       </c>
       <c r="W29" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X29" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="30">
@@ -2949,13 +2949,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C31" t="n">
-        <v>170.8360944016073</v>
+        <v>130.4964747291228</v>
       </c>
       <c r="D31" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>168.0604237117701</v>
@@ -2964,13 +2964,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>163.066849283703</v>
       </c>
       <c r="H31" t="n">
-        <v>130.781282966242</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>17.62716630628231</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3031,22 +3031,22 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E32" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F32" t="n">
-        <v>281.5380183251322</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>395.4476524459058</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>266.4097384417204</v>
+        <v>141.9050875890909</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,16 +3079,16 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>38.69418351668035</v>
       </c>
       <c r="T32" t="n">
         <v>209.3908366544989</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>256.4751836067882</v>
       </c>
       <c r="V32" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -3198,10 +3198,10 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" t="n">
         <v>133.4480002385874</v>
-      </c>
-      <c r="G34" t="n">
-        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3265,25 +3265,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C35" t="n">
-        <v>21.39696461950615</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D35" t="n">
-        <v>431.5506869772999</v>
+        <v>200.7820007463114</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F35" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G35" t="n">
-        <v>395.4476524459058</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>266.4097384417204</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,22 +3316,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>38.69418351668035</v>
       </c>
       <c r="T35" t="n">
-        <v>209.3908366544989</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>256.4751836067882</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3435,13 +3435,13 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F37" t="n">
-        <v>10.43596239024978</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
-        <v>163.066849283703</v>
+        <v>129.3441111423334</v>
       </c>
       <c r="H37" t="n">
-        <v>130.781282966242</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3502,22 +3502,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F38" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G38" t="n">
-        <v>395.4476524459058</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3556,22 +3556,22 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>209.3908366544989</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>256.4751836067882</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>222.8765360721751</v>
       </c>
       <c r="X38" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>304.4063512520437</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3663,25 +3663,25 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C40" t="n">
-        <v>138.547658909019</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>133.4480002385883</v>
       </c>
       <c r="G40" t="n">
-        <v>163.066849283703</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>130.781282966242</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>61.65479693373585</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>142.5131431297577</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>239.7097330287659</v>
@@ -3739,19 +3739,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E41" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
-        <v>423.5887552948843</v>
+        <v>379.6747650511634</v>
       </c>
       <c r="G41" t="n">
         <v>395.4476524459058</v>
@@ -3790,19 +3790,19 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>38.69418351668036</v>
+        <v>38.69418351668035</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>256.4751836067882</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>194.2073073413373</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -3903,7 +3903,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D43" t="n">
-        <v>164.2192128704925</v>
+        <v>122.7272296112195</v>
       </c>
       <c r="E43" t="n">
         <v>168.0604237117701</v>
@@ -3912,13 +3912,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
-        <v>163.066849283703</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>61.65479693373585</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3954,7 +3954,7 @@
         <v>239.7097330287659</v>
       </c>
       <c r="U43" t="n">
-        <v>9.387667829583338</v>
+        <v>275.6012973062951</v>
       </c>
       <c r="V43" t="n">
         <v>284.0859530482738</v>
@@ -3976,22 +3976,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>339.8091888938323</v>
+        <v>32.83206086859076</v>
       </c>
       <c r="C44" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>395.4476524459058</v>
       </c>
       <c r="H44" t="n">
         <v>266.4097384417204</v>
@@ -4027,25 +4027,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>38.69418351668036</v>
+        <v>38.69418351668035</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>209.3908366544989</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>256.4751836067882</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="45">
@@ -4146,16 +4146,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F46" t="n">
-        <v>47.2512114244788</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>163.066849283703</v>
       </c>
       <c r="H46" t="n">
-        <v>130.781282966242</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>61.65479693373585</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>142.5131431297577</v>
       </c>
       <c r="T46" t="n">
         <v>239.7097330287659</v>
@@ -4197,13 +4197,13 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X46" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y46" t="n">
-        <v>225.1454739790328</v>
+        <v>53.01348180416083</v>
       </c>
     </row>
   </sheetData>
@@ -5017,52 +5017,52 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1151.03433569101</v>
+        <v>1191.869775313755</v>
       </c>
       <c r="C11" t="n">
-        <v>1151.03433569101</v>
+        <v>753.7273024971781</v>
       </c>
       <c r="D11" t="n">
-        <v>1151.03433569101</v>
+        <v>317.8175176716226</v>
       </c>
       <c r="E11" t="n">
-        <v>717.2595908493054</v>
+        <v>317.8175176716226</v>
       </c>
       <c r="F11" t="n">
-        <v>717.2595908493054</v>
+        <v>317.8175176716226</v>
       </c>
       <c r="G11" t="n">
         <v>317.8175176716226</v>
       </c>
       <c r="H11" t="n">
-        <v>48.71677177089499</v>
+        <v>48.716771770895</v>
       </c>
       <c r="I11" t="n">
-        <v>122.2071970529791</v>
+        <v>122.2071970529792</v>
       </c>
       <c r="J11" t="n">
-        <v>284.8964781041976</v>
+        <v>284.896478104198</v>
       </c>
       <c r="K11" t="n">
-        <v>528.7255375544862</v>
+        <v>528.7255375544867</v>
       </c>
       <c r="L11" t="n">
-        <v>831.2170466428694</v>
+        <v>831.2170466428698</v>
       </c>
       <c r="M11" t="n">
-        <v>1167.797134377708</v>
+        <v>1167.797134377709</v>
       </c>
       <c r="N11" t="n">
-        <v>1509.823439815744</v>
+        <v>1509.823439815745</v>
       </c>
       <c r="O11" t="n">
         <v>1832.789181316721</v>
       </c>
       <c r="P11" t="n">
-        <v>2108.432969611294</v>
+        <v>2108.432969611295</v>
       </c>
       <c r="Q11" t="n">
-        <v>2315.429975153287</v>
+        <v>2315.429975153288</v>
       </c>
       <c r="R11" t="n">
         <v>2435.83858854475</v>
@@ -5071,22 +5071,22 @@
         <v>2396.753554689517</v>
       </c>
       <c r="T11" t="n">
-        <v>2396.753554689517</v>
+        <v>2185.247659078912</v>
       </c>
       <c r="U11" t="n">
-        <v>2396.753554689517</v>
+        <v>2185.247659078912</v>
       </c>
       <c r="V11" t="n">
-        <v>2034.136604623343</v>
+        <v>1822.630709012739</v>
       </c>
       <c r="W11" t="n">
-        <v>1629.281150034377</v>
+        <v>1822.630709012739</v>
       </c>
       <c r="X11" t="n">
-        <v>1210.138686613687</v>
+        <v>1822.630709012739</v>
       </c>
       <c r="Y11" t="n">
-        <v>1151.03433569101</v>
+        <v>1414.344585312392</v>
       </c>
     </row>
     <row r="12">
@@ -5114,22 +5114,22 @@
         <v>80.34618184019172</v>
       </c>
       <c r="H12" t="n">
-        <v>48.71677177089499</v>
+        <v>48.716771770895</v>
       </c>
       <c r="I12" t="n">
-        <v>84.02796795020362</v>
+        <v>48.716771770895</v>
       </c>
       <c r="J12" t="n">
-        <v>180.9245892111574</v>
+        <v>127.724032815222</v>
       </c>
       <c r="K12" t="n">
-        <v>346.5363484128907</v>
+        <v>293.3357920169553</v>
       </c>
       <c r="L12" t="n">
-        <v>516.0212400241751</v>
+        <v>516.0212400241749</v>
       </c>
       <c r="M12" t="n">
-        <v>775.8846544545776</v>
+        <v>775.8846544545773</v>
       </c>
       <c r="N12" t="n">
         <v>1042.62588021723</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>691.710439672368</v>
+        <v>1047.20384494393</v>
       </c>
       <c r="C13" t="n">
-        <v>519.1487281555929</v>
+        <v>920.1536902191827</v>
       </c>
       <c r="D13" t="n">
-        <v>515.2910707221224</v>
+        <v>754.2756974207055</v>
       </c>
       <c r="E13" t="n">
-        <v>345.5330669728596</v>
+        <v>584.5176936714427</v>
       </c>
       <c r="F13" t="n">
-        <v>345.5330669728596</v>
+        <v>407.8106396331989</v>
       </c>
       <c r="G13" t="n">
-        <v>180.819077797402</v>
+        <v>243.0966504577413</v>
       </c>
       <c r="H13" t="n">
-        <v>48.71677177089499</v>
+        <v>110.9943444312342</v>
       </c>
       <c r="I13" t="n">
-        <v>48.71677177089499</v>
+        <v>48.716771770895</v>
       </c>
       <c r="J13" t="n">
         <v>196.086283195932</v>
@@ -5205,46 +5205,46 @@
         <v>570.7410962095564</v>
       </c>
       <c r="L13" t="n">
-        <v>806.9404236007022</v>
+        <v>1116.78392367145</v>
       </c>
       <c r="M13" t="n">
-        <v>1401.20620851431</v>
+        <v>1251.565841404145</v>
       </c>
       <c r="N13" t="n">
-        <v>1532.78331349572</v>
+        <v>1383.142946385555</v>
       </c>
       <c r="O13" t="n">
-        <v>2073.985315543396</v>
+        <v>1726.478421573055</v>
       </c>
       <c r="P13" t="n">
-        <v>2177.977581014356</v>
+        <v>2177.977581014357</v>
       </c>
       <c r="Q13" t="n">
-        <v>2418.169210152066</v>
+        <v>2418.169210152067</v>
       </c>
       <c r="R13" t="n">
         <v>2435.83858854475</v>
       </c>
       <c r="S13" t="n">
-        <v>2435.83858854475</v>
+        <v>2291.885918716712</v>
       </c>
       <c r="T13" t="n">
-        <v>2193.70754508135</v>
+        <v>2049.754875253312</v>
       </c>
       <c r="U13" t="n">
-        <v>1915.322396287112</v>
+        <v>1771.369726459075</v>
       </c>
       <c r="V13" t="n">
-        <v>1628.366888157543</v>
+        <v>1484.414218329505</v>
       </c>
       <c r="W13" t="n">
-        <v>1356.340483743835</v>
+        <v>1484.414218329505</v>
       </c>
       <c r="X13" t="n">
-        <v>1110.948729077247</v>
+        <v>1239.022463662918</v>
       </c>
       <c r="Y13" t="n">
-        <v>883.5290583913552</v>
+        <v>1239.022463662918</v>
       </c>
     </row>
     <row r="14">
@@ -5254,40 +5254,40 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1348.501419019969</v>
+        <v>931.5195014729687</v>
       </c>
       <c r="C14" t="n">
-        <v>910.3589462033921</v>
+        <v>931.5195014729687</v>
       </c>
       <c r="D14" t="n">
-        <v>910.3589462033921</v>
+        <v>495.6097166474132</v>
       </c>
       <c r="E14" t="n">
-        <v>476.5842013616872</v>
+        <v>495.6097166474132</v>
       </c>
       <c r="F14" t="n">
-        <v>48.71677177089499</v>
+        <v>67.74228705662097</v>
       </c>
       <c r="G14" t="n">
-        <v>48.71677177089499</v>
+        <v>48.716771770895</v>
       </c>
       <c r="H14" t="n">
-        <v>48.71677177089499</v>
+        <v>48.716771770895</v>
       </c>
       <c r="I14" t="n">
-        <v>122.2071970529798</v>
+        <v>122.2071970529792</v>
       </c>
       <c r="J14" t="n">
-        <v>284.8964781041983</v>
+        <v>284.8964781041977</v>
       </c>
       <c r="K14" t="n">
-        <v>528.7255375544869</v>
+        <v>528.7255375544864</v>
       </c>
       <c r="L14" t="n">
-        <v>831.2170466428701</v>
+        <v>831.2170466428696</v>
       </c>
       <c r="M14" t="n">
-        <v>1167.797134377709</v>
+        <v>1167.797134377708</v>
       </c>
       <c r="N14" t="n">
         <v>1509.823439815745</v>
@@ -5305,25 +5305,25 @@
         <v>2435.83858854475</v>
       </c>
       <c r="S14" t="n">
-        <v>2435.83858854475</v>
+        <v>2396.753554689517</v>
       </c>
       <c r="T14" t="n">
-        <v>2435.83858854475</v>
+        <v>2185.247659078912</v>
       </c>
       <c r="U14" t="n">
-        <v>2435.83858854475</v>
+        <v>2185.247659078912</v>
       </c>
       <c r="V14" t="n">
-        <v>2073.221638478576</v>
+        <v>2185.247659078912</v>
       </c>
       <c r="W14" t="n">
-        <v>1774.800989504877</v>
+        <v>2185.247659078912</v>
       </c>
       <c r="X14" t="n">
-        <v>1774.800989504877</v>
+        <v>1766.105195658223</v>
       </c>
       <c r="Y14" t="n">
-        <v>1774.800989504877</v>
+        <v>1357.819071957877</v>
       </c>
     </row>
     <row r="15">
@@ -5351,34 +5351,34 @@
         <v>80.34618184019172</v>
       </c>
       <c r="H15" t="n">
-        <v>48.71677177089499</v>
+        <v>48.716771770895</v>
       </c>
       <c r="I15" t="n">
-        <v>84.02796795020362</v>
+        <v>48.716771770895</v>
       </c>
       <c r="J15" t="n">
-        <v>180.9245892111574</v>
+        <v>145.6133930318488</v>
       </c>
       <c r="K15" t="n">
-        <v>346.5363484128906</v>
+        <v>311.2251522335821</v>
       </c>
       <c r="L15" t="n">
-        <v>569.2217964201103</v>
+        <v>533.9106002408018</v>
       </c>
       <c r="M15" t="n">
-        <v>829.0852108505127</v>
+        <v>793.7740146712043</v>
       </c>
       <c r="N15" t="n">
-        <v>1095.826436613165</v>
+        <v>1060.515240433857</v>
       </c>
       <c r="O15" t="n">
-        <v>1339.842546057618</v>
+        <v>1304.53134987831</v>
       </c>
       <c r="P15" t="n">
-        <v>1535.686986727012</v>
+        <v>1500.375790547704</v>
       </c>
       <c r="Q15" t="n">
-        <v>1666.603808841992</v>
+        <v>1631.292612662684</v>
       </c>
       <c r="R15" t="n">
         <v>1677.080359849152</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>547.7577698443301</v>
+        <v>691.710439672368</v>
       </c>
       <c r="C16" t="n">
-        <v>441.5863264051692</v>
+        <v>519.1487281555929</v>
       </c>
       <c r="D16" t="n">
-        <v>275.7083336066918</v>
+        <v>395.1818295584015</v>
       </c>
       <c r="E16" t="n">
-        <v>275.7083336066918</v>
+        <v>225.4238258091388</v>
       </c>
       <c r="F16" t="n">
-        <v>275.7083336066918</v>
+        <v>48.716771770895</v>
       </c>
       <c r="G16" t="n">
-        <v>110.9943444312342</v>
+        <v>48.716771770895</v>
       </c>
       <c r="H16" t="n">
-        <v>110.9943444312342</v>
+        <v>48.716771770895</v>
       </c>
       <c r="I16" t="n">
-        <v>48.71677177089499</v>
+        <v>48.716771770895</v>
       </c>
       <c r="J16" t="n">
         <v>196.086283195932</v>
@@ -5445,43 +5445,43 @@
         <v>1116.78392367145</v>
       </c>
       <c r="M16" t="n">
-        <v>1473.368563769749</v>
+        <v>1251.565841404145</v>
       </c>
       <c r="N16" t="n">
-        <v>1604.945668751159</v>
+        <v>1383.142946385555</v>
       </c>
       <c r="O16" t="n">
-        <v>1726.478421573054</v>
+        <v>1726.478421573055</v>
       </c>
       <c r="P16" t="n">
-        <v>2177.977581014356</v>
+        <v>2177.977581014357</v>
       </c>
       <c r="Q16" t="n">
-        <v>2418.169210152066</v>
+        <v>2418.169210152067</v>
       </c>
       <c r="R16" t="n">
         <v>2435.83858854475</v>
       </c>
       <c r="S16" t="n">
-        <v>2291.885918716712</v>
+        <v>2435.83858854475</v>
       </c>
       <c r="T16" t="n">
-        <v>2049.754875253312</v>
+        <v>2193.70754508135</v>
       </c>
       <c r="U16" t="n">
-        <v>1771.369726459075</v>
+        <v>1915.322396287112</v>
       </c>
       <c r="V16" t="n">
-        <v>1484.414218329505</v>
+        <v>1628.366888157543</v>
       </c>
       <c r="W16" t="n">
-        <v>1212.387813915797</v>
+        <v>1356.340483743835</v>
       </c>
       <c r="X16" t="n">
-        <v>966.9960592492091</v>
+        <v>1110.948729077247</v>
       </c>
       <c r="Y16" t="n">
-        <v>739.5763885633173</v>
+        <v>883.5290583913552</v>
       </c>
     </row>
     <row r="17">
@@ -5491,40 +5491,40 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1366.784638895938</v>
+        <v>717.2595908493054</v>
       </c>
       <c r="C17" t="n">
-        <v>1181.59473208797</v>
+        <v>717.2595908493054</v>
       </c>
       <c r="D17" t="n">
-        <v>745.6849472624149</v>
+        <v>717.2595908493054</v>
       </c>
       <c r="E17" t="n">
-        <v>745.6849472624149</v>
+        <v>717.2595908493054</v>
       </c>
       <c r="F17" t="n">
-        <v>317.8175176716227</v>
+        <v>717.2595908493054</v>
       </c>
       <c r="G17" t="n">
-        <v>317.8175176716227</v>
+        <v>317.8175176716226</v>
       </c>
       <c r="H17" t="n">
-        <v>48.71677177089499</v>
+        <v>48.716771770895</v>
       </c>
       <c r="I17" t="n">
-        <v>122.2071970529796</v>
+        <v>122.207197052979</v>
       </c>
       <c r="J17" t="n">
-        <v>284.896478104198</v>
+        <v>284.8964781041975</v>
       </c>
       <c r="K17" t="n">
-        <v>528.7255375544867</v>
+        <v>528.7255375544862</v>
       </c>
       <c r="L17" t="n">
-        <v>831.2170466428698</v>
+        <v>831.2170466428696</v>
       </c>
       <c r="M17" t="n">
-        <v>1167.797134377709</v>
+        <v>1167.797134377708</v>
       </c>
       <c r="N17" t="n">
         <v>1509.823439815745</v>
@@ -5548,19 +5548,19 @@
         <v>2396.753554689517</v>
       </c>
       <c r="U17" t="n">
-        <v>2137.687712662458</v>
+        <v>2312.160582625481</v>
       </c>
       <c r="V17" t="n">
-        <v>1775.070762596285</v>
+        <v>1949.543632559308</v>
       </c>
       <c r="W17" t="n">
-        <v>1775.070762596285</v>
+        <v>1544.688177970341</v>
       </c>
       <c r="X17" t="n">
-        <v>1775.070762596285</v>
+        <v>1125.545714549652</v>
       </c>
       <c r="Y17" t="n">
-        <v>1366.784638895938</v>
+        <v>717.2595908493054</v>
       </c>
     </row>
     <row r="18">
@@ -5588,22 +5588,22 @@
         <v>80.34618184019172</v>
       </c>
       <c r="H18" t="n">
-        <v>48.71677177089499</v>
+        <v>48.716771770895</v>
       </c>
       <c r="I18" t="n">
-        <v>84.02796795020362</v>
+        <v>84.02796795020365</v>
       </c>
       <c r="J18" t="n">
-        <v>180.9245892111574</v>
+        <v>180.9245892111575</v>
       </c>
       <c r="K18" t="n">
-        <v>346.5363484128906</v>
+        <v>346.5363484128908</v>
       </c>
       <c r="L18" t="n">
-        <v>569.2217964201102</v>
+        <v>516.0212400241749</v>
       </c>
       <c r="M18" t="n">
-        <v>775.8846544545777</v>
+        <v>775.8846544545773</v>
       </c>
       <c r="N18" t="n">
         <v>1042.62588021723</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>793.1495245109177</v>
+        <v>691.710439672368</v>
       </c>
       <c r="C19" t="n">
-        <v>620.5878129941426</v>
+        <v>519.1487281555929</v>
       </c>
       <c r="D19" t="n">
-        <v>620.5878129941426</v>
+        <v>395.1818295584015</v>
       </c>
       <c r="E19" t="n">
-        <v>450.8298092448799</v>
+        <v>225.4238258091388</v>
       </c>
       <c r="F19" t="n">
-        <v>407.8106396331989</v>
+        <v>48.716771770895</v>
       </c>
       <c r="G19" t="n">
-        <v>243.0966504577413</v>
+        <v>48.716771770895</v>
       </c>
       <c r="H19" t="n">
-        <v>110.9943444312342</v>
+        <v>48.716771770895</v>
       </c>
       <c r="I19" t="n">
-        <v>48.71677177089499</v>
+        <v>48.716771770895</v>
       </c>
       <c r="J19" t="n">
-        <v>196.086283195932</v>
+        <v>109.5065980312421</v>
       </c>
       <c r="K19" t="n">
-        <v>570.7410962095564</v>
+        <v>209.402956473731</v>
       </c>
       <c r="L19" t="n">
-        <v>1116.78392367145</v>
+        <v>755.4457839356251</v>
       </c>
       <c r="M19" t="n">
-        <v>1711.049708585058</v>
+        <v>1127.140180220998</v>
       </c>
       <c r="N19" t="n">
-        <v>1952.452562721501</v>
+        <v>1700.976088360052</v>
       </c>
       <c r="O19" t="n">
-        <v>2073.985315543396</v>
+        <v>2242.178090407728</v>
       </c>
       <c r="P19" t="n">
-        <v>2177.977581014356</v>
+        <v>2346.170355878688</v>
       </c>
       <c r="Q19" t="n">
-        <v>2418.169210152066</v>
+        <v>2418.169210152067</v>
       </c>
       <c r="R19" t="n">
         <v>2435.83858854475</v>
       </c>
       <c r="S19" t="n">
-        <v>2291.885918716712</v>
+        <v>2435.83858854475</v>
       </c>
       <c r="T19" t="n">
-        <v>2049.754875253312</v>
+        <v>2193.70754508135</v>
       </c>
       <c r="U19" t="n">
-        <v>1771.369726459075</v>
+        <v>1915.322396287112</v>
       </c>
       <c r="V19" t="n">
-        <v>1484.414218329505</v>
+        <v>1628.366888157543</v>
       </c>
       <c r="W19" t="n">
-        <v>1212.387813915797</v>
+        <v>1356.340483743835</v>
       </c>
       <c r="X19" t="n">
-        <v>1212.387813915797</v>
+        <v>1110.948729077247</v>
       </c>
       <c r="Y19" t="n">
-        <v>984.9681432299049</v>
+        <v>883.5290583913552</v>
       </c>
     </row>
     <row r="20">
@@ -5728,40 +5728,40 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1604.683563470875</v>
+        <v>1970.45398420461</v>
       </c>
       <c r="C20" t="n">
-        <v>1604.683563470875</v>
+        <v>1532.311511388033</v>
       </c>
       <c r="D20" t="n">
-        <v>1578.901765281802</v>
+        <v>1096.401726562478</v>
       </c>
       <c r="E20" t="n">
-        <v>1145.127020440098</v>
+        <v>717.2595908493054</v>
       </c>
       <c r="F20" t="n">
         <v>717.2595908493054</v>
       </c>
       <c r="G20" t="n">
-        <v>317.8175176716227</v>
+        <v>317.8175176716226</v>
       </c>
       <c r="H20" t="n">
-        <v>48.71677177089499</v>
+        <v>48.716771770895</v>
       </c>
       <c r="I20" t="n">
-        <v>122.2071970529801</v>
+        <v>122.2071970529792</v>
       </c>
       <c r="J20" t="n">
-        <v>284.8964781041986</v>
+        <v>284.896478104198</v>
       </c>
       <c r="K20" t="n">
-        <v>528.7255375544871</v>
+        <v>528.7255375544867</v>
       </c>
       <c r="L20" t="n">
-        <v>831.2170466428703</v>
+        <v>831.2170466428698</v>
       </c>
       <c r="M20" t="n">
-        <v>1167.797134377709</v>
+        <v>1167.797134377708</v>
       </c>
       <c r="N20" t="n">
         <v>1509.823439815745</v>
@@ -5779,25 +5779,25 @@
         <v>2435.83858854475</v>
       </c>
       <c r="S20" t="n">
-        <v>2435.83858854475</v>
+        <v>2396.753554689517</v>
       </c>
       <c r="T20" t="n">
-        <v>2435.83858854475</v>
+        <v>2396.753554689517</v>
       </c>
       <c r="U20" t="n">
-        <v>2435.83858854475</v>
+        <v>2396.753554689517</v>
       </c>
       <c r="V20" t="n">
-        <v>2435.83858854475</v>
+        <v>2396.753554689517</v>
       </c>
       <c r="W20" t="n">
-        <v>2030.983133955783</v>
+        <v>2396.753554689517</v>
       </c>
       <c r="X20" t="n">
-        <v>2030.983133955783</v>
+        <v>2396.753554689517</v>
       </c>
       <c r="Y20" t="n">
-        <v>2030.983133955783</v>
+        <v>2396.753554689517</v>
       </c>
     </row>
     <row r="21">
@@ -5825,34 +5825,34 @@
         <v>80.34618184019172</v>
       </c>
       <c r="H21" t="n">
-        <v>48.71677177089499</v>
+        <v>48.716771770895</v>
       </c>
       <c r="I21" t="n">
-        <v>84.02796795020362</v>
+        <v>84.02796795020365</v>
       </c>
       <c r="J21" t="n">
         <v>180.9245892111574</v>
       </c>
       <c r="K21" t="n">
-        <v>346.5363484128906</v>
+        <v>346.5363484128907</v>
       </c>
       <c r="L21" t="n">
-        <v>569.2217964201102</v>
+        <v>516.0212400241749</v>
       </c>
       <c r="M21" t="n">
-        <v>829.0852108505126</v>
+        <v>775.8846544545773</v>
       </c>
       <c r="N21" t="n">
-        <v>1095.826436613165</v>
+        <v>1042.62588021723</v>
       </c>
       <c r="O21" t="n">
-        <v>1339.842546057618</v>
+        <v>1286.641989661683</v>
       </c>
       <c r="P21" t="n">
-        <v>1535.686986727011</v>
+        <v>1482.486430331076</v>
       </c>
       <c r="Q21" t="n">
-        <v>1666.603808841992</v>
+        <v>1613.403252446057</v>
       </c>
       <c r="R21" t="n">
         <v>1677.080359849152</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>789.8888133077298</v>
+        <v>898.3355230491115</v>
       </c>
       <c r="C22" t="n">
-        <v>617.3271017909548</v>
+        <v>725.7738115323365</v>
       </c>
       <c r="D22" t="n">
-        <v>451.4491089924775</v>
+        <v>559.8958187338592</v>
       </c>
       <c r="E22" t="n">
-        <v>281.6911052432147</v>
+        <v>390.1378149845964</v>
       </c>
       <c r="F22" t="n">
-        <v>104.9840512049709</v>
+        <v>213.4307609463526</v>
       </c>
       <c r="G22" t="n">
-        <v>48.71677177089499</v>
+        <v>48.716771770895</v>
       </c>
       <c r="H22" t="n">
-        <v>48.71677177089499</v>
+        <v>48.716771770895</v>
       </c>
       <c r="I22" t="n">
-        <v>48.71677177089499</v>
+        <v>48.716771770895</v>
       </c>
       <c r="J22" t="n">
-        <v>196.086283195932</v>
+        <v>109.5065980312421</v>
       </c>
       <c r="K22" t="n">
-        <v>570.7410962095564</v>
+        <v>209.402956473731</v>
       </c>
       <c r="L22" t="n">
-        <v>1116.78392367145</v>
+        <v>755.4457839356251</v>
       </c>
       <c r="M22" t="n">
-        <v>1473.36856376975</v>
+        <v>1349.711568849233</v>
       </c>
       <c r="N22" t="n">
-        <v>1604.945668751159</v>
+        <v>1923.547476988287</v>
       </c>
       <c r="O22" t="n">
-        <v>1726.478421573054</v>
+        <v>2242.178090407728</v>
       </c>
       <c r="P22" t="n">
-        <v>2177.977581014356</v>
+        <v>2346.170355878688</v>
       </c>
       <c r="Q22" t="n">
-        <v>2418.169210152066</v>
+        <v>2418.169210152067</v>
       </c>
       <c r="R22" t="n">
         <v>2435.83858854475</v>
       </c>
       <c r="S22" t="n">
-        <v>2291.885918716712</v>
+        <v>2435.83858854475</v>
       </c>
       <c r="T22" t="n">
-        <v>2291.885918716712</v>
+        <v>2193.70754508135</v>
       </c>
       <c r="U22" t="n">
-        <v>2013.500769922474</v>
+        <v>1915.322396287112</v>
       </c>
       <c r="V22" t="n">
-        <v>1726.545261792905</v>
+        <v>1834.991971534286</v>
       </c>
       <c r="W22" t="n">
-        <v>1454.518857379196</v>
+        <v>1562.965567120578</v>
       </c>
       <c r="X22" t="n">
-        <v>1209.127102712609</v>
+        <v>1317.573812453991</v>
       </c>
       <c r="Y22" t="n">
-        <v>981.707432026717</v>
+        <v>1090.154141768099</v>
       </c>
     </row>
     <row r="23">
@@ -5965,28 +5965,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1153.169375674861</v>
+        <v>1784.411203845524</v>
       </c>
       <c r="C23" t="n">
-        <v>1153.169375674861</v>
+        <v>1346.268731028948</v>
       </c>
       <c r="D23" t="n">
-        <v>717.2595908493054</v>
+        <v>910.3589462033921</v>
       </c>
       <c r="E23" t="n">
-        <v>717.2595908493054</v>
+        <v>476.5842013616872</v>
       </c>
       <c r="F23" t="n">
-        <v>717.2595908493054</v>
+        <v>48.71677177089499</v>
       </c>
       <c r="G23" t="n">
-        <v>317.8175176716227</v>
+        <v>48.71677177089499</v>
       </c>
       <c r="H23" t="n">
         <v>48.71677177089499</v>
       </c>
       <c r="I23" t="n">
-        <v>122.2071970529796</v>
+        <v>122.2071970529795</v>
       </c>
       <c r="J23" t="n">
         <v>284.896478104198</v>
@@ -5998,43 +5998,43 @@
         <v>831.2170466428698</v>
       </c>
       <c r="M23" t="n">
-        <v>1167.797134377709</v>
+        <v>1167.797134377708</v>
       </c>
       <c r="N23" t="n">
         <v>1509.823439815745</v>
       </c>
       <c r="O23" t="n">
-        <v>1832.789181316721</v>
+        <v>1832.78918131672</v>
       </c>
       <c r="P23" t="n">
-        <v>2108.432969611295</v>
+        <v>2108.432969611294</v>
       </c>
       <c r="Q23" t="n">
-        <v>2315.429975153288</v>
+        <v>2315.429975153287</v>
       </c>
       <c r="R23" t="n">
-        <v>2435.83858854475</v>
+        <v>2435.838588544749</v>
       </c>
       <c r="S23" t="n">
-        <v>2435.83858854475</v>
+        <v>2396.753554689516</v>
       </c>
       <c r="T23" t="n">
-        <v>2224.332692934145</v>
+        <v>2396.753554689516</v>
       </c>
       <c r="U23" t="n">
-        <v>1965.266850907086</v>
+        <v>2396.753554689516</v>
       </c>
       <c r="V23" t="n">
-        <v>1602.649900840912</v>
+        <v>2210.710774330432</v>
       </c>
       <c r="W23" t="n">
-        <v>1579.468946159769</v>
+        <v>2210.710774330432</v>
       </c>
       <c r="X23" t="n">
-        <v>1579.468946159769</v>
+        <v>2210.710774330432</v>
       </c>
       <c r="Y23" t="n">
-        <v>1579.468946159769</v>
+        <v>2210.710774330432</v>
       </c>
     </row>
     <row r="24">
@@ -6059,34 +6059,34 @@
         <v>164.684848684769</v>
       </c>
       <c r="G24" t="n">
-        <v>80.34618184019172</v>
+        <v>80.3461818401917</v>
       </c>
       <c r="H24" t="n">
         <v>48.71677177089499</v>
       </c>
       <c r="I24" t="n">
-        <v>48.71677177089499</v>
+        <v>84.02796795020362</v>
       </c>
       <c r="J24" t="n">
-        <v>127.7240328152225</v>
+        <v>180.9245892111574</v>
       </c>
       <c r="K24" t="n">
-        <v>293.3357920169558</v>
+        <v>346.5363484128907</v>
       </c>
       <c r="L24" t="n">
-        <v>516.0212400241753</v>
+        <v>569.2217964201103</v>
       </c>
       <c r="M24" t="n">
-        <v>775.8846544545777</v>
+        <v>829.0852108505127</v>
       </c>
       <c r="N24" t="n">
-        <v>1042.62588021723</v>
+        <v>1095.826436613165</v>
       </c>
       <c r="O24" t="n">
-        <v>1286.641989661683</v>
+        <v>1339.842546057618</v>
       </c>
       <c r="P24" t="n">
-        <v>1482.486430331076</v>
+        <v>1535.686986727012</v>
       </c>
       <c r="Q24" t="n">
         <v>1613.403252446057</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>691.710439672368</v>
+        <v>584.5176936714427</v>
       </c>
       <c r="C25" t="n">
-        <v>519.1487281555929</v>
+        <v>584.5176936714427</v>
       </c>
       <c r="D25" t="n">
-        <v>353.2707353571157</v>
+        <v>584.5176936714427</v>
       </c>
       <c r="E25" t="n">
-        <v>183.5127316078529</v>
+        <v>584.5176936714427</v>
       </c>
       <c r="F25" t="n">
-        <v>48.71677177089499</v>
+        <v>407.8106396331989</v>
       </c>
       <c r="G25" t="n">
-        <v>48.71677177089499</v>
+        <v>243.0966504577413</v>
       </c>
       <c r="H25" t="n">
-        <v>48.71677177089499</v>
+        <v>110.9943444312342</v>
       </c>
       <c r="I25" t="n">
         <v>48.71677177089499</v>
       </c>
       <c r="J25" t="n">
-        <v>196.086283195932</v>
+        <v>109.5065980312421</v>
       </c>
       <c r="K25" t="n">
-        <v>570.7410962095564</v>
+        <v>484.1614110448666</v>
       </c>
       <c r="L25" t="n">
-        <v>784.3508696688391</v>
+        <v>1030.204238506761</v>
       </c>
       <c r="M25" t="n">
-        <v>1378.616654582447</v>
+        <v>1164.986156239455</v>
       </c>
       <c r="N25" t="n">
-        <v>1952.452562721501</v>
+        <v>1296.563261220865</v>
       </c>
       <c r="O25" t="n">
-        <v>2073.985315543396</v>
+        <v>1837.765263268542</v>
       </c>
       <c r="P25" t="n">
-        <v>2177.977581014356</v>
+        <v>2289.264422709844</v>
       </c>
       <c r="Q25" t="n">
         <v>2418.169210152066</v>
       </c>
       <c r="R25" t="n">
-        <v>2435.83858854475</v>
+        <v>2435.838588544749</v>
       </c>
       <c r="S25" t="n">
-        <v>2435.83858854475</v>
+        <v>2291.885918716711</v>
       </c>
       <c r="T25" t="n">
-        <v>2193.70754508135</v>
+        <v>2049.754875253311</v>
       </c>
       <c r="U25" t="n">
-        <v>1915.322396287112</v>
+        <v>1771.369726459074</v>
       </c>
       <c r="V25" t="n">
-        <v>1628.366888157543</v>
+        <v>1484.414218329504</v>
       </c>
       <c r="W25" t="n">
-        <v>1356.340483743835</v>
+        <v>1212.387813915796</v>
       </c>
       <c r="X25" t="n">
-        <v>1110.948729077247</v>
+        <v>966.9960592492082</v>
       </c>
       <c r="Y25" t="n">
-        <v>883.5290583913552</v>
+        <v>739.5763885633164</v>
       </c>
     </row>
     <row r="26">
@@ -6202,16 +6202,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1784.411203845524</v>
+        <v>1356.543774254732</v>
       </c>
       <c r="C26" t="n">
-        <v>1346.268731028948</v>
+        <v>918.4013014381553</v>
       </c>
       <c r="D26" t="n">
-        <v>910.3589462033921</v>
+        <v>482.4915166125998</v>
       </c>
       <c r="E26" t="n">
-        <v>476.5842013616872</v>
+        <v>48.71677177089499</v>
       </c>
       <c r="F26" t="n">
         <v>48.71677177089499</v>
@@ -6223,55 +6223,55 @@
         <v>48.71677177089499</v>
       </c>
       <c r="I26" t="n">
-        <v>122.2071970529792</v>
+        <v>122.2071970529787</v>
       </c>
       <c r="J26" t="n">
-        <v>284.896478104198</v>
+        <v>284.8964781041973</v>
       </c>
       <c r="K26" t="n">
-        <v>528.7255375544869</v>
+        <v>528.725537554486</v>
       </c>
       <c r="L26" t="n">
-        <v>831.2170466428701</v>
+        <v>831.2170466428691</v>
       </c>
       <c r="M26" t="n">
-        <v>1167.797134377709</v>
+        <v>1167.797134377708</v>
       </c>
       <c r="N26" t="n">
-        <v>1509.823439815745</v>
+        <v>1509.823439815744</v>
       </c>
       <c r="O26" t="n">
-        <v>1832.789181316721</v>
+        <v>1832.78918131672</v>
       </c>
       <c r="P26" t="n">
-        <v>2108.432969611295</v>
+        <v>2108.432969611294</v>
       </c>
       <c r="Q26" t="n">
-        <v>2315.429975153288</v>
+        <v>2315.429975153287</v>
       </c>
       <c r="R26" t="n">
-        <v>2435.83858854475</v>
+        <v>2435.838588544749</v>
       </c>
       <c r="S26" t="n">
-        <v>2435.83858854475</v>
+        <v>2396.753554689516</v>
       </c>
       <c r="T26" t="n">
-        <v>2435.83858854475</v>
+        <v>2187.698799328607</v>
       </c>
       <c r="U26" t="n">
-        <v>2435.83858854475</v>
+        <v>2187.698799328607</v>
       </c>
       <c r="V26" t="n">
-        <v>2435.83858854475</v>
+        <v>2187.698799328607</v>
       </c>
       <c r="W26" t="n">
-        <v>2192.697327545871</v>
+        <v>1782.84334473964</v>
       </c>
       <c r="X26" t="n">
-        <v>2192.697327545871</v>
+        <v>1782.84334473964</v>
       </c>
       <c r="Y26" t="n">
-        <v>1784.411203845524</v>
+        <v>1782.84334473964</v>
       </c>
     </row>
     <row r="27">
@@ -6296,7 +6296,7 @@
         <v>164.684848684769</v>
       </c>
       <c r="G27" t="n">
-        <v>80.34618184019172</v>
+        <v>80.3461818401917</v>
       </c>
       <c r="H27" t="n">
         <v>48.71677177089499</v>
@@ -6308,7 +6308,7 @@
         <v>180.9245892111574</v>
       </c>
       <c r="K27" t="n">
-        <v>346.5363484128906</v>
+        <v>346.5363484128907</v>
       </c>
       <c r="L27" t="n">
         <v>569.2217964201103</v>
@@ -6320,13 +6320,13 @@
         <v>1095.826436613165</v>
       </c>
       <c r="O27" t="n">
-        <v>1339.842546057618</v>
+        <v>1286.641989661683</v>
       </c>
       <c r="P27" t="n">
-        <v>1535.686986727012</v>
+        <v>1482.486430331076</v>
       </c>
       <c r="Q27" t="n">
-        <v>1666.603808841992</v>
+        <v>1613.403252446057</v>
       </c>
       <c r="R27" t="n">
         <v>1677.080359849152</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>978.6659478019376</v>
+        <v>585.6816972944624</v>
       </c>
       <c r="C28" t="n">
-        <v>806.1042362851625</v>
+        <v>585.6816972944624</v>
       </c>
       <c r="D28" t="n">
-        <v>691.9981247603662</v>
+        <v>419.8037044959851</v>
       </c>
       <c r="E28" t="n">
-        <v>522.2401210111034</v>
+        <v>419.8037044959851</v>
       </c>
       <c r="F28" t="n">
-        <v>345.5330669728596</v>
+        <v>243.0966504577413</v>
       </c>
       <c r="G28" t="n">
-        <v>180.819077797402</v>
+        <v>243.0966504577413</v>
       </c>
       <c r="H28" t="n">
-        <v>48.71677177089499</v>
+        <v>110.9943444312342</v>
       </c>
       <c r="I28" t="n">
         <v>48.71677177089499</v>
@@ -6390,13 +6390,13 @@
         <v>570.7410962095564</v>
       </c>
       <c r="L28" t="n">
-        <v>698.5740419034894</v>
+        <v>1116.78392367145</v>
       </c>
       <c r="M28" t="n">
-        <v>1292.839826817097</v>
+        <v>1251.565841404145</v>
       </c>
       <c r="N28" t="n">
-        <v>1424.416931798507</v>
+        <v>1383.142946385555</v>
       </c>
       <c r="O28" t="n">
         <v>1726.478421573054</v>
@@ -6408,28 +6408,28 @@
         <v>2418.169210152066</v>
       </c>
       <c r="R28" t="n">
-        <v>2435.83858854475</v>
+        <v>2435.838588544749</v>
       </c>
       <c r="S28" t="n">
-        <v>2435.83858854475</v>
+        <v>2291.885918716711</v>
       </c>
       <c r="T28" t="n">
-        <v>2193.70754508135</v>
+        <v>2049.754875253311</v>
       </c>
       <c r="U28" t="n">
-        <v>1915.322396287112</v>
+        <v>1771.369726459074</v>
       </c>
       <c r="V28" t="n">
-        <v>1915.322396287112</v>
+        <v>1484.414218329504</v>
       </c>
       <c r="W28" t="n">
-        <v>1643.295991873404</v>
+        <v>1250.311741365929</v>
       </c>
       <c r="X28" t="n">
-        <v>1397.904237206817</v>
+        <v>1004.919986699341</v>
       </c>
       <c r="Y28" t="n">
-        <v>1170.484566520925</v>
+        <v>777.5003160134495</v>
       </c>
     </row>
     <row r="29">
@@ -6439,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>778.6519828312563</v>
+        <v>1356.543774254732</v>
       </c>
       <c r="C29" t="n">
-        <v>778.6519828312563</v>
+        <v>918.4013014381553</v>
       </c>
       <c r="D29" t="n">
-        <v>778.6519828312563</v>
+        <v>482.4915166125998</v>
       </c>
       <c r="E29" t="n">
-        <v>778.6519828312563</v>
+        <v>48.71677177089499</v>
       </c>
       <c r="F29" t="n">
-        <v>350.784553240464</v>
+        <v>48.71677177089499</v>
       </c>
       <c r="G29" t="n">
         <v>48.71677177089499</v>
@@ -6460,19 +6460,19 @@
         <v>48.71677177089499</v>
       </c>
       <c r="I29" t="n">
-        <v>122.2071970529801</v>
+        <v>122.2071970529795</v>
       </c>
       <c r="J29" t="n">
-        <v>284.8964781041986</v>
+        <v>284.896478104198</v>
       </c>
       <c r="K29" t="n">
-        <v>528.7255375544871</v>
+        <v>528.7255375544867</v>
       </c>
       <c r="L29" t="n">
-        <v>831.2170466428703</v>
+        <v>831.2170466428698</v>
       </c>
       <c r="M29" t="n">
-        <v>1167.797134377709</v>
+        <v>1167.797134377708</v>
       </c>
       <c r="N29" t="n">
         <v>1509.823439815745</v>
@@ -6484,31 +6484,31 @@
         <v>2108.432969611295</v>
       </c>
       <c r="Q29" t="n">
-        <v>2315.429975153288</v>
+        <v>2315.429975153287</v>
       </c>
       <c r="R29" t="n">
-        <v>2435.83858854475</v>
+        <v>2435.838588544749</v>
       </c>
       <c r="S29" t="n">
-        <v>2435.83858854475</v>
+        <v>2396.753554689516</v>
       </c>
       <c r="T29" t="n">
-        <v>2224.332692934145</v>
+        <v>2396.753554689516</v>
       </c>
       <c r="U29" t="n">
-        <v>1965.266850907086</v>
+        <v>2396.753554689516</v>
       </c>
       <c r="V29" t="n">
-        <v>1602.649900840912</v>
+        <v>2169.685352544046</v>
       </c>
       <c r="W29" t="n">
-        <v>1197.794446251946</v>
+        <v>1764.829897955079</v>
       </c>
       <c r="X29" t="n">
-        <v>778.6519828312563</v>
+        <v>1764.829897955079</v>
       </c>
       <c r="Y29" t="n">
-        <v>778.6519828312563</v>
+        <v>1356.543774254732</v>
       </c>
     </row>
     <row r="30">
@@ -6533,7 +6533,7 @@
         <v>164.684848684769</v>
       </c>
       <c r="G30" t="n">
-        <v>80.34618184019172</v>
+        <v>80.3461818401917</v>
       </c>
       <c r="H30" t="n">
         <v>48.71677177089499</v>
@@ -6542,28 +6542,28 @@
         <v>84.02796795020362</v>
       </c>
       <c r="J30" t="n">
-        <v>180.9245892111574</v>
+        <v>127.7240328152223</v>
       </c>
       <c r="K30" t="n">
-        <v>346.5363484128906</v>
+        <v>293.3357920169556</v>
       </c>
       <c r="L30" t="n">
-        <v>569.2217964201102</v>
+        <v>516.0212400241751</v>
       </c>
       <c r="M30" t="n">
-        <v>829.0852108505126</v>
+        <v>775.8846544545776</v>
       </c>
       <c r="N30" t="n">
-        <v>1095.826436613165</v>
+        <v>1042.62588021723</v>
       </c>
       <c r="O30" t="n">
-        <v>1339.842546057618</v>
+        <v>1286.641989661683</v>
       </c>
       <c r="P30" t="n">
-        <v>1535.686986727011</v>
+        <v>1482.486430331076</v>
       </c>
       <c r="Q30" t="n">
-        <v>1666.603808841992</v>
+        <v>1613.403252446057</v>
       </c>
       <c r="R30" t="n">
         <v>1677.080359849152</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>883.5290583913552</v>
+        <v>691.7104396723671</v>
       </c>
       <c r="C31" t="n">
-        <v>710.9673468745801</v>
+        <v>559.8958187338592</v>
       </c>
       <c r="D31" t="n">
-        <v>545.0893540761028</v>
+        <v>559.8958187338592</v>
       </c>
       <c r="E31" t="n">
-        <v>375.3313503268401</v>
+        <v>390.1378149845964</v>
       </c>
       <c r="F31" t="n">
-        <v>198.6242962885963</v>
+        <v>213.4307609463526</v>
       </c>
       <c r="G31" t="n">
-        <v>198.6242962885963</v>
+        <v>48.71677177089499</v>
       </c>
       <c r="H31" t="n">
-        <v>66.52199026208925</v>
+        <v>48.71677177089499</v>
       </c>
       <c r="I31" t="n">
         <v>48.71677177089499</v>
       </c>
       <c r="J31" t="n">
-        <v>109.5065980312421</v>
+        <v>196.086283195932</v>
       </c>
       <c r="K31" t="n">
-        <v>209.402956473731</v>
+        <v>295.9826416384208</v>
       </c>
       <c r="L31" t="n">
-        <v>755.4457839356249</v>
+        <v>423.8155873323538</v>
       </c>
       <c r="M31" t="n">
-        <v>890.2277016683195</v>
+        <v>1018.081372245961</v>
       </c>
       <c r="N31" t="n">
-        <v>1185.276419525378</v>
+        <v>1591.917280385016</v>
       </c>
       <c r="O31" t="n">
-        <v>1726.478421573054</v>
+        <v>2133.119282432692</v>
       </c>
       <c r="P31" t="n">
-        <v>2177.977581014356</v>
+        <v>2346.170355878688</v>
       </c>
       <c r="Q31" t="n">
         <v>2418.169210152066</v>
       </c>
       <c r="R31" t="n">
-        <v>2435.83858854475</v>
+        <v>2435.838588544749</v>
       </c>
       <c r="S31" t="n">
-        <v>2435.83858854475</v>
+        <v>2435.838588544749</v>
       </c>
       <c r="T31" t="n">
-        <v>2193.70754508135</v>
+        <v>2193.707545081349</v>
       </c>
       <c r="U31" t="n">
         <v>1915.322396287112</v>
       </c>
       <c r="V31" t="n">
-        <v>1628.366888157543</v>
+        <v>1628.366888157542</v>
       </c>
       <c r="W31" t="n">
-        <v>1356.340483743835</v>
+        <v>1356.340483743834</v>
       </c>
       <c r="X31" t="n">
-        <v>1110.948729077247</v>
+        <v>1110.948729077246</v>
       </c>
       <c r="Y31" t="n">
-        <v>883.5290583913552</v>
+        <v>883.5290583913543</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1435.416172383063</v>
+        <v>1499.882246566945</v>
       </c>
       <c r="C32" t="n">
-        <v>1435.416172383063</v>
+        <v>1061.739773750368</v>
       </c>
       <c r="D32" t="n">
-        <v>1435.416172383063</v>
+        <v>625.8299889248128</v>
       </c>
       <c r="E32" t="n">
-        <v>1001.641427541358</v>
+        <v>192.055244083108</v>
       </c>
       <c r="F32" t="n">
-        <v>717.2595908493054</v>
+        <v>192.055244083108</v>
       </c>
       <c r="G32" t="n">
-        <v>317.8175176716227</v>
+        <v>192.055244083108</v>
       </c>
       <c r="H32" t="n">
         <v>48.71677177089499</v>
       </c>
       <c r="I32" t="n">
-        <v>122.2071970529792</v>
+        <v>122.2071970529795</v>
       </c>
       <c r="J32" t="n">
-        <v>284.8964781041976</v>
+        <v>284.896478104198</v>
       </c>
       <c r="K32" t="n">
-        <v>528.725537554486</v>
+        <v>528.7255375544867</v>
       </c>
       <c r="L32" t="n">
-        <v>831.217046642869</v>
+        <v>831.2170466428698</v>
       </c>
       <c r="M32" t="n">
         <v>1167.797134377708</v>
       </c>
       <c r="N32" t="n">
-        <v>1509.823439815744</v>
+        <v>1509.823439815745</v>
       </c>
       <c r="O32" t="n">
-        <v>1832.78918131672</v>
+        <v>1832.789181316721</v>
       </c>
       <c r="P32" t="n">
-        <v>2108.432969611294</v>
+        <v>2108.432969611295</v>
       </c>
       <c r="Q32" t="n">
-        <v>2315.429975153287</v>
+        <v>2315.429975153288</v>
       </c>
       <c r="R32" t="n">
         <v>2435.838588544749</v>
       </c>
       <c r="S32" t="n">
-        <v>2435.838588544749</v>
+        <v>2396.753554689516</v>
       </c>
       <c r="T32" t="n">
-        <v>2224.332692934144</v>
+        <v>2185.247659078912</v>
       </c>
       <c r="U32" t="n">
-        <v>2224.332692934144</v>
+        <v>1926.181817051853</v>
       </c>
       <c r="V32" t="n">
-        <v>1861.715742867971</v>
+        <v>1926.181817051853</v>
       </c>
       <c r="W32" t="n">
-        <v>1861.715742867971</v>
+        <v>1926.181817051853</v>
       </c>
       <c r="X32" t="n">
-        <v>1861.715742867971</v>
+        <v>1926.181817051853</v>
       </c>
       <c r="Y32" t="n">
-        <v>1861.715742867971</v>
+        <v>1926.181817051853</v>
       </c>
     </row>
     <row r="33">
@@ -6779,16 +6779,16 @@
         <v>84.02796795020362</v>
       </c>
       <c r="J33" t="n">
-        <v>180.9245892111574</v>
+        <v>127.7240328152223</v>
       </c>
       <c r="K33" t="n">
-        <v>293.3357920169558</v>
+        <v>293.3357920169556</v>
       </c>
       <c r="L33" t="n">
-        <v>516.0212400241753</v>
+        <v>516.0212400241751</v>
       </c>
       <c r="M33" t="n">
-        <v>775.8846544545777</v>
+        <v>775.8846544545776</v>
       </c>
       <c r="N33" t="n">
         <v>1042.62588021723</v>
@@ -6846,7 +6846,7 @@
         <v>183.512731607852</v>
       </c>
       <c r="F34" t="n">
-        <v>48.71677177089499</v>
+        <v>183.512731607852</v>
       </c>
       <c r="G34" t="n">
         <v>48.71677177089499</v>
@@ -6858,25 +6858,25 @@
         <v>48.71677177089499</v>
       </c>
       <c r="J34" t="n">
-        <v>196.086283195932</v>
+        <v>109.5065980312421</v>
       </c>
       <c r="K34" t="n">
-        <v>295.9826416384208</v>
+        <v>484.1614110448666</v>
       </c>
       <c r="L34" t="n">
-        <v>423.8155873323538</v>
+        <v>1030.204238506761</v>
       </c>
       <c r="M34" t="n">
-        <v>1018.081372245961</v>
+        <v>1164.986156239455</v>
       </c>
       <c r="N34" t="n">
-        <v>1591.917280385016</v>
+        <v>1296.563261220865</v>
       </c>
       <c r="O34" t="n">
-        <v>2133.119282432692</v>
+        <v>1837.765263268542</v>
       </c>
       <c r="P34" t="n">
-        <v>2237.111547903653</v>
+        <v>2289.264422709844</v>
       </c>
       <c r="Q34" t="n">
         <v>2418.169210152066</v>
@@ -6913,37 +6913,37 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1602.649900840912</v>
+        <v>1551.31152078392</v>
       </c>
       <c r="C35" t="n">
-        <v>1581.036805265653</v>
+        <v>1113.169047967343</v>
       </c>
       <c r="D35" t="n">
-        <v>1145.127020440098</v>
+        <v>910.3589462033921</v>
       </c>
       <c r="E35" t="n">
-        <v>1145.127020440098</v>
+        <v>476.5842013616872</v>
       </c>
       <c r="F35" t="n">
-        <v>717.2595908493054</v>
+        <v>48.71677177089499</v>
       </c>
       <c r="G35" t="n">
-        <v>317.8175176716227</v>
+        <v>48.71677177089499</v>
       </c>
       <c r="H35" t="n">
         <v>48.71677177089499</v>
       </c>
       <c r="I35" t="n">
-        <v>122.2071970529792</v>
+        <v>122.2071970529787</v>
       </c>
       <c r="J35" t="n">
-        <v>284.8964781041976</v>
+        <v>284.8964781041971</v>
       </c>
       <c r="K35" t="n">
-        <v>528.725537554486</v>
+        <v>528.7255375544855</v>
       </c>
       <c r="L35" t="n">
-        <v>831.217046642869</v>
+        <v>831.2170466428687</v>
       </c>
       <c r="M35" t="n">
         <v>1167.797134377708</v>
@@ -6964,25 +6964,25 @@
         <v>2435.838588544749</v>
       </c>
       <c r="S35" t="n">
-        <v>2435.838588544749</v>
+        <v>2396.753554689516</v>
       </c>
       <c r="T35" t="n">
-        <v>2224.332692934144</v>
+        <v>2396.753554689516</v>
       </c>
       <c r="U35" t="n">
-        <v>1965.266850907085</v>
+        <v>2396.753554689516</v>
       </c>
       <c r="V35" t="n">
-        <v>1602.649900840912</v>
+        <v>2396.753554689516</v>
       </c>
       <c r="W35" t="n">
-        <v>1602.649900840912</v>
+        <v>2396.753554689516</v>
       </c>
       <c r="X35" t="n">
-        <v>1602.649900840912</v>
+        <v>1977.611091268827</v>
       </c>
       <c r="Y35" t="n">
-        <v>1602.649900840912</v>
+        <v>1977.611091268827</v>
       </c>
     </row>
     <row r="36">
@@ -7019,25 +7019,25 @@
         <v>180.9245892111574</v>
       </c>
       <c r="K36" t="n">
-        <v>293.3357920169558</v>
+        <v>346.5363484128907</v>
       </c>
       <c r="L36" t="n">
-        <v>516.0212400241753</v>
+        <v>569.2217964201103</v>
       </c>
       <c r="M36" t="n">
-        <v>775.8846544545777</v>
+        <v>829.0852108505127</v>
       </c>
       <c r="N36" t="n">
-        <v>1042.62588021723</v>
+        <v>1095.826436613165</v>
       </c>
       <c r="O36" t="n">
-        <v>1286.641989661683</v>
+        <v>1339.842546057618</v>
       </c>
       <c r="P36" t="n">
-        <v>1482.486430331076</v>
+        <v>1535.686986727012</v>
       </c>
       <c r="Q36" t="n">
-        <v>1613.403252446057</v>
+        <v>1666.603808841993</v>
       </c>
       <c r="R36" t="n">
         <v>1677.080359849152</v>
@@ -7083,10 +7083,10 @@
         <v>356.0744431246271</v>
       </c>
       <c r="F37" t="n">
-        <v>345.5330669728596</v>
+        <v>179.3673890863833</v>
       </c>
       <c r="G37" t="n">
-        <v>180.819077797402</v>
+        <v>48.71677177089499</v>
       </c>
       <c r="H37" t="n">
         <v>48.71677177089499</v>
@@ -7095,25 +7095,25 @@
         <v>48.71677177089499</v>
       </c>
       <c r="J37" t="n">
-        <v>196.086283195932</v>
+        <v>109.5065980312421</v>
       </c>
       <c r="K37" t="n">
-        <v>570.7410962095564</v>
+        <v>484.1614110448666</v>
       </c>
       <c r="L37" t="n">
-        <v>698.5740419034894</v>
+        <v>1030.204238506761</v>
       </c>
       <c r="M37" t="n">
-        <v>1292.839826817097</v>
+        <v>1164.986156239455</v>
       </c>
       <c r="N37" t="n">
-        <v>1424.416931798507</v>
+        <v>1296.563261220865</v>
       </c>
       <c r="O37" t="n">
-        <v>1726.478421573054</v>
+        <v>1837.765263268542</v>
       </c>
       <c r="P37" t="n">
-        <v>2177.977581014356</v>
+        <v>2289.264422709844</v>
       </c>
       <c r="Q37" t="n">
         <v>2418.169210152066</v>
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>876.02627453937</v>
+        <v>1784.411203845524</v>
       </c>
       <c r="C38" t="n">
-        <v>876.02627453937</v>
+        <v>1346.268731028948</v>
       </c>
       <c r="D38" t="n">
-        <v>876.02627453937</v>
+        <v>910.3589462033921</v>
       </c>
       <c r="E38" t="n">
-        <v>876.02627453937</v>
+        <v>476.5842013616872</v>
       </c>
       <c r="F38" t="n">
-        <v>448.1588449485777</v>
+        <v>48.716771770895</v>
       </c>
       <c r="G38" t="n">
-        <v>48.71677177089498</v>
+        <v>48.716771770895</v>
       </c>
       <c r="H38" t="n">
-        <v>48.71677177089498</v>
+        <v>48.716771770895</v>
       </c>
       <c r="I38" t="n">
-        <v>122.2071970529792</v>
+        <v>122.2071970529796</v>
       </c>
       <c r="J38" t="n">
-        <v>284.8964781041976</v>
+        <v>284.8964781041981</v>
       </c>
       <c r="K38" t="n">
-        <v>528.7255375544862</v>
+        <v>528.7255375544868</v>
       </c>
       <c r="L38" t="n">
-        <v>831.2170466428694</v>
+        <v>831.2170466428699</v>
       </c>
       <c r="M38" t="n">
-        <v>1167.797134377708</v>
+        <v>1167.797134377709</v>
       </c>
       <c r="N38" t="n">
-        <v>1509.823439815744</v>
+        <v>1509.823439815745</v>
       </c>
       <c r="O38" t="n">
-        <v>1832.78918131672</v>
+        <v>1832.789181316721</v>
       </c>
       <c r="P38" t="n">
-        <v>2108.432969611293</v>
+        <v>2108.432969611295</v>
       </c>
       <c r="Q38" t="n">
-        <v>2315.429975153286</v>
+        <v>2315.429975153288</v>
       </c>
       <c r="R38" t="n">
-        <v>2435.838588544749</v>
+        <v>2435.83858854475</v>
       </c>
       <c r="S38" t="n">
-        <v>2435.838588544749</v>
+        <v>2435.83858854475</v>
       </c>
       <c r="T38" t="n">
-        <v>2224.332692934144</v>
+        <v>2435.83858854475</v>
       </c>
       <c r="U38" t="n">
-        <v>1965.266850907085</v>
+        <v>2435.83858854475</v>
       </c>
       <c r="V38" t="n">
-        <v>1602.649900840911</v>
+        <v>2435.83858854475</v>
       </c>
       <c r="W38" t="n">
-        <v>1602.649900840911</v>
+        <v>2210.710774330432</v>
       </c>
       <c r="X38" t="n">
-        <v>1183.507437420222</v>
+        <v>2210.710774330432</v>
       </c>
       <c r="Y38" t="n">
-        <v>876.02627453937</v>
+        <v>2210.710774330432</v>
       </c>
     </row>
     <row r="39">
@@ -7244,31 +7244,31 @@
         <v>164.684848684769</v>
       </c>
       <c r="G39" t="n">
-        <v>80.3461818401917</v>
+        <v>80.34618184019172</v>
       </c>
       <c r="H39" t="n">
-        <v>48.71677177089498</v>
+        <v>48.716771770895</v>
       </c>
       <c r="I39" t="n">
-        <v>48.71677177089498</v>
+        <v>84.02796795020363</v>
       </c>
       <c r="J39" t="n">
-        <v>127.7240328152225</v>
+        <v>180.9245892111574</v>
       </c>
       <c r="K39" t="n">
-        <v>293.3357920169558</v>
+        <v>346.5363484128907</v>
       </c>
       <c r="L39" t="n">
-        <v>516.0212400241753</v>
+        <v>569.2217964201103</v>
       </c>
       <c r="M39" t="n">
-        <v>775.8846544545777</v>
+        <v>829.0852108505127</v>
       </c>
       <c r="N39" t="n">
-        <v>1042.62588021723</v>
+        <v>1095.826436613165</v>
       </c>
       <c r="O39" t="n">
-        <v>1286.641989661683</v>
+        <v>1339.842546057618</v>
       </c>
       <c r="P39" t="n">
         <v>1482.486430331076</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>547.7577698443292</v>
+        <v>691.710439672368</v>
       </c>
       <c r="C40" t="n">
-        <v>407.8106396331989</v>
+        <v>519.1487281555929</v>
       </c>
       <c r="D40" t="n">
-        <v>407.8106396331989</v>
+        <v>353.2707353571157</v>
       </c>
       <c r="E40" t="n">
-        <v>407.8106396331989</v>
+        <v>183.5127316078529</v>
       </c>
       <c r="F40" t="n">
-        <v>407.8106396331989</v>
+        <v>48.716771770895</v>
       </c>
       <c r="G40" t="n">
-        <v>243.0966504577413</v>
+        <v>48.716771770895</v>
       </c>
       <c r="H40" t="n">
-        <v>110.9943444312342</v>
+        <v>48.716771770895</v>
       </c>
       <c r="I40" t="n">
-        <v>48.71677177089498</v>
+        <v>48.716771770895</v>
       </c>
       <c r="J40" t="n">
-        <v>196.0862831959319</v>
+        <v>109.5065980312421</v>
       </c>
       <c r="K40" t="n">
-        <v>570.7410962095564</v>
+        <v>209.402956473731</v>
       </c>
       <c r="L40" t="n">
-        <v>1116.78392367145</v>
+        <v>532.8743953073899</v>
       </c>
       <c r="M40" t="n">
-        <v>1251.565841404145</v>
+        <v>1127.140180220998</v>
       </c>
       <c r="N40" t="n">
-        <v>1383.142946385555</v>
+        <v>1700.976088360052</v>
       </c>
       <c r="O40" t="n">
-        <v>1726.478421573053</v>
+        <v>2242.178090407728</v>
       </c>
       <c r="P40" t="n">
-        <v>2177.977581014356</v>
+        <v>2346.170355878688</v>
       </c>
       <c r="Q40" t="n">
-        <v>2418.169210152065</v>
+        <v>2418.169210152067</v>
       </c>
       <c r="R40" t="n">
-        <v>2435.838588544749</v>
+        <v>2435.83858854475</v>
       </c>
       <c r="S40" t="n">
-        <v>2291.885918716711</v>
+        <v>2435.83858854475</v>
       </c>
       <c r="T40" t="n">
-        <v>2049.754875253311</v>
+        <v>2193.70754508135</v>
       </c>
       <c r="U40" t="n">
-        <v>1771.369726459074</v>
+        <v>1915.322396287112</v>
       </c>
       <c r="V40" t="n">
-        <v>1484.414218329504</v>
+        <v>1628.366888157543</v>
       </c>
       <c r="W40" t="n">
-        <v>1212.387813915796</v>
+        <v>1356.340483743835</v>
       </c>
       <c r="X40" t="n">
-        <v>966.9960592492082</v>
+        <v>1110.948729077247</v>
       </c>
       <c r="Y40" t="n">
-        <v>739.5763885633164</v>
+        <v>883.5290583913552</v>
       </c>
     </row>
     <row r="41">
@@ -7387,34 +7387,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1578.901765281802</v>
+        <v>1970.45398420461</v>
       </c>
       <c r="C41" t="n">
-        <v>1578.901765281802</v>
+        <v>1970.45398420461</v>
       </c>
       <c r="D41" t="n">
-        <v>1578.901765281802</v>
+        <v>1534.544199379054</v>
       </c>
       <c r="E41" t="n">
-        <v>1145.127020440098</v>
+        <v>1100.769454537349</v>
       </c>
       <c r="F41" t="n">
         <v>717.2595908493054</v>
       </c>
       <c r="G41" t="n">
-        <v>317.8175176716227</v>
+        <v>317.8175176716226</v>
       </c>
       <c r="H41" t="n">
-        <v>48.71677177089499</v>
+        <v>48.716771770895</v>
       </c>
       <c r="I41" t="n">
         <v>122.2071970529795</v>
       </c>
       <c r="J41" t="n">
-        <v>284.8964781041979</v>
+        <v>284.896478104198</v>
       </c>
       <c r="K41" t="n">
-        <v>528.7255375544866</v>
+        <v>528.7255375544864</v>
       </c>
       <c r="L41" t="n">
         <v>831.2170466428696</v>
@@ -7423,16 +7423,16 @@
         <v>1167.797134377708</v>
       </c>
       <c r="N41" t="n">
-        <v>1509.823439815744</v>
+        <v>1509.823439815745</v>
       </c>
       <c r="O41" t="n">
         <v>1832.789181316721</v>
       </c>
       <c r="P41" t="n">
-        <v>2108.432969611294</v>
+        <v>2108.432969611295</v>
       </c>
       <c r="Q41" t="n">
-        <v>2315.429975153287</v>
+        <v>2315.429975153288</v>
       </c>
       <c r="R41" t="n">
         <v>2435.83858854475</v>
@@ -7444,19 +7444,19 @@
         <v>2396.753554689517</v>
       </c>
       <c r="U41" t="n">
-        <v>2137.687712662458</v>
+        <v>2396.753554689517</v>
       </c>
       <c r="V41" t="n">
-        <v>1775.070762596285</v>
+        <v>2396.753554689517</v>
       </c>
       <c r="W41" t="n">
-        <v>1578.901765281802</v>
+        <v>2396.753554689517</v>
       </c>
       <c r="X41" t="n">
-        <v>1578.901765281802</v>
+        <v>2396.753554689517</v>
       </c>
       <c r="Y41" t="n">
-        <v>1578.901765281802</v>
+        <v>2396.753554689517</v>
       </c>
     </row>
     <row r="42">
@@ -7484,22 +7484,22 @@
         <v>80.34618184019172</v>
       </c>
       <c r="H42" t="n">
-        <v>48.71677177089499</v>
+        <v>48.716771770895</v>
       </c>
       <c r="I42" t="n">
-        <v>84.02796795020362</v>
+        <v>84.02796795020365</v>
       </c>
       <c r="J42" t="n">
-        <v>180.9245892111574</v>
+        <v>127.724032815222</v>
       </c>
       <c r="K42" t="n">
-        <v>346.5363484128906</v>
+        <v>293.3357920169553</v>
       </c>
       <c r="L42" t="n">
-        <v>516.0212400241751</v>
+        <v>516.0212400241749</v>
       </c>
       <c r="M42" t="n">
-        <v>775.8846544545776</v>
+        <v>775.8846544545773</v>
       </c>
       <c r="N42" t="n">
         <v>1042.62588021723</v>
@@ -7545,52 +7545,52 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>960.6130957094508</v>
+        <v>691.710439672368</v>
       </c>
       <c r="C43" t="n">
-        <v>788.0513841926758</v>
+        <v>519.1487281555929</v>
       </c>
       <c r="D43" t="n">
-        <v>622.1733913941985</v>
+        <v>395.1818295584015</v>
       </c>
       <c r="E43" t="n">
-        <v>452.4153876449357</v>
+        <v>225.4238258091388</v>
       </c>
       <c r="F43" t="n">
-        <v>275.7083336066918</v>
+        <v>48.716771770895</v>
       </c>
       <c r="G43" t="n">
-        <v>110.9943444312342</v>
+        <v>48.716771770895</v>
       </c>
       <c r="H43" t="n">
-        <v>110.9943444312342</v>
+        <v>48.716771770895</v>
       </c>
       <c r="I43" t="n">
-        <v>48.71677177089499</v>
+        <v>48.716771770895</v>
       </c>
       <c r="J43" t="n">
-        <v>196.086283195932</v>
+        <v>109.5065980312421</v>
       </c>
       <c r="K43" t="n">
-        <v>570.7410962095564</v>
+        <v>484.1614110448666</v>
       </c>
       <c r="L43" t="n">
-        <v>1116.78392367145</v>
+        <v>1030.204238506761</v>
       </c>
       <c r="M43" t="n">
-        <v>1473.368563769749</v>
+        <v>1164.986156239455</v>
       </c>
       <c r="N43" t="n">
-        <v>1604.945668751159</v>
+        <v>1296.563261220865</v>
       </c>
       <c r="O43" t="n">
-        <v>1726.478421573054</v>
+        <v>1837.765263268542</v>
       </c>
       <c r="P43" t="n">
-        <v>2177.977581014356</v>
+        <v>2289.264422709844</v>
       </c>
       <c r="Q43" t="n">
-        <v>2418.169210152066</v>
+        <v>2418.169210152067</v>
       </c>
       <c r="R43" t="n">
         <v>2435.83858854475</v>
@@ -7602,19 +7602,19 @@
         <v>2193.70754508135</v>
       </c>
       <c r="U43" t="n">
-        <v>2184.225052324195</v>
+        <v>1915.322396287112</v>
       </c>
       <c r="V43" t="n">
-        <v>1897.269544194626</v>
+        <v>1628.366888157543</v>
       </c>
       <c r="W43" t="n">
-        <v>1625.243139780917</v>
+        <v>1356.340483743835</v>
       </c>
       <c r="X43" t="n">
-        <v>1379.85138511433</v>
+        <v>1110.948729077247</v>
       </c>
       <c r="Y43" t="n">
-        <v>1152.431714428438</v>
+        <v>883.5290583913552</v>
       </c>
     </row>
     <row r="44">
@@ -7624,25 +7624,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2053.511949746252</v>
+        <v>717.2595908493054</v>
       </c>
       <c r="C44" t="n">
-        <v>1615.369476929675</v>
+        <v>717.2595908493054</v>
       </c>
       <c r="D44" t="n">
-        <v>1179.45969210412</v>
+        <v>717.2595908493054</v>
       </c>
       <c r="E44" t="n">
-        <v>745.6849472624149</v>
+        <v>717.2595908493054</v>
       </c>
       <c r="F44" t="n">
-        <v>317.8175176716227</v>
+        <v>717.2595908493054</v>
       </c>
       <c r="G44" t="n">
-        <v>317.8175176716227</v>
+        <v>317.8175176716226</v>
       </c>
       <c r="H44" t="n">
-        <v>48.71677177089499</v>
+        <v>48.716771770895</v>
       </c>
       <c r="I44" t="n">
         <v>122.2071970529792</v>
@@ -7654,22 +7654,22 @@
         <v>528.7255375544867</v>
       </c>
       <c r="L44" t="n">
-        <v>831.2170466428696</v>
+        <v>831.2170466428698</v>
       </c>
       <c r="M44" t="n">
         <v>1167.797134377708</v>
       </c>
       <c r="N44" t="n">
-        <v>1509.823439815744</v>
+        <v>1509.823439815745</v>
       </c>
       <c r="O44" t="n">
         <v>1832.789181316721</v>
       </c>
       <c r="P44" t="n">
-        <v>2108.432969611294</v>
+        <v>2108.432969611295</v>
       </c>
       <c r="Q44" t="n">
-        <v>2315.429975153287</v>
+        <v>2315.429975153288</v>
       </c>
       <c r="R44" t="n">
         <v>2435.83858854475</v>
@@ -7678,22 +7678,22 @@
         <v>2396.753554689517</v>
       </c>
       <c r="T44" t="n">
-        <v>2396.753554689517</v>
+        <v>2185.247659078912</v>
       </c>
       <c r="U44" t="n">
-        <v>2396.753554689517</v>
+        <v>1926.181817051854</v>
       </c>
       <c r="V44" t="n">
-        <v>2396.753554689517</v>
+        <v>1563.56486698568</v>
       </c>
       <c r="W44" t="n">
-        <v>2396.753554689517</v>
+        <v>1158.709412396713</v>
       </c>
       <c r="X44" t="n">
-        <v>2396.753554689517</v>
+        <v>1158.709412396713</v>
       </c>
       <c r="Y44" t="n">
-        <v>2396.753554689517</v>
+        <v>750.4232886963667</v>
       </c>
     </row>
     <row r="45">
@@ -7721,34 +7721,34 @@
         <v>80.34618184019172</v>
       </c>
       <c r="H45" t="n">
-        <v>48.71677177089499</v>
+        <v>48.716771770895</v>
       </c>
       <c r="I45" t="n">
-        <v>48.71677177089499</v>
+        <v>84.02796795020365</v>
       </c>
       <c r="J45" t="n">
-        <v>127.7240328152223</v>
+        <v>180.9245892111574</v>
       </c>
       <c r="K45" t="n">
-        <v>293.3357920169556</v>
+        <v>346.5363484128907</v>
       </c>
       <c r="L45" t="n">
-        <v>516.0212400241751</v>
+        <v>569.2217964201103</v>
       </c>
       <c r="M45" t="n">
-        <v>775.8846544545776</v>
+        <v>829.0852108505127</v>
       </c>
       <c r="N45" t="n">
-        <v>1042.62588021723</v>
+        <v>1095.826436613165</v>
       </c>
       <c r="O45" t="n">
-        <v>1286.641989661683</v>
+        <v>1339.842546057618</v>
       </c>
       <c r="P45" t="n">
-        <v>1482.486430331076</v>
+        <v>1535.686986727012</v>
       </c>
       <c r="Q45" t="n">
-        <v>1613.403252446057</v>
+        <v>1666.603808841993</v>
       </c>
       <c r="R45" t="n">
         <v>1677.080359849152</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>963.7368440860764</v>
+        <v>721.6284690108677</v>
       </c>
       <c r="C46" t="n">
-        <v>791.1751325693014</v>
+        <v>549.0667574940926</v>
       </c>
       <c r="D46" t="n">
-        <v>625.2971397708241</v>
+        <v>383.1887646956153</v>
       </c>
       <c r="E46" t="n">
-        <v>455.5391360215613</v>
+        <v>213.4307609463526</v>
       </c>
       <c r="F46" t="n">
-        <v>407.8106396331989</v>
+        <v>213.4307609463526</v>
       </c>
       <c r="G46" t="n">
-        <v>243.0966504577413</v>
+        <v>48.716771770895</v>
       </c>
       <c r="H46" t="n">
-        <v>110.9943444312342</v>
+        <v>48.716771770895</v>
       </c>
       <c r="I46" t="n">
-        <v>48.71677177089499</v>
+        <v>48.716771770895</v>
       </c>
       <c r="J46" t="n">
-        <v>196.086283195932</v>
+        <v>109.5065980312421</v>
       </c>
       <c r="K46" t="n">
-        <v>570.7410962095564</v>
+        <v>484.1614110448666</v>
       </c>
       <c r="L46" t="n">
-        <v>1116.78392367145</v>
+        <v>1030.204238506761</v>
       </c>
       <c r="M46" t="n">
-        <v>1711.049708585058</v>
+        <v>1164.986156239455</v>
       </c>
       <c r="N46" t="n">
-        <v>1952.452562721501</v>
+        <v>1296.563261220865</v>
       </c>
       <c r="O46" t="n">
-        <v>2073.985315543396</v>
+        <v>1837.765263268542</v>
       </c>
       <c r="P46" t="n">
-        <v>2177.977581014356</v>
+        <v>2289.264422709844</v>
       </c>
       <c r="Q46" t="n">
-        <v>2418.169210152066</v>
+        <v>2418.169210152067</v>
       </c>
       <c r="R46" t="n">
         <v>2435.83858854475</v>
       </c>
       <c r="S46" t="n">
-        <v>2435.83858854475</v>
+        <v>2291.885918716712</v>
       </c>
       <c r="T46" t="n">
-        <v>2193.70754508135</v>
+        <v>2049.754875253312</v>
       </c>
       <c r="U46" t="n">
-        <v>1915.322396287112</v>
+        <v>1771.369726459075</v>
       </c>
       <c r="V46" t="n">
-        <v>1628.366888157543</v>
+        <v>1484.414218329505</v>
       </c>
       <c r="W46" t="n">
-        <v>1628.366888157543</v>
+        <v>1212.387813915797</v>
       </c>
       <c r="X46" t="n">
-        <v>1382.975133490955</v>
+        <v>966.9960592492091</v>
       </c>
       <c r="Y46" t="n">
-        <v>1155.555462805064</v>
+        <v>913.4470877298547</v>
       </c>
     </row>
   </sheetData>
@@ -8853,19 +8853,19 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
-        <v>109.4609916133462</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
-        <v>464.1251183645587</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>423.9083325512944</v>
+        <v>224.0431539046513</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q13" t="n">
         <v>169.8916917821538</v>
@@ -9093,13 +9093,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M16" t="n">
-        <v>224.0431539046508</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>224.0431539046513</v>
       </c>
       <c r="P16" t="n">
         <v>351.0170646165068</v>
@@ -9321,28 +9321,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M19" t="n">
-        <v>464.1251183645587</v>
+        <v>239.3055338915938</v>
       </c>
       <c r="N19" t="n">
-        <v>110.9351001565994</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9558,28 +9558,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M22" t="n">
-        <v>224.0431539046513</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>199.0887480783294</v>
       </c>
       <c r="P22" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9795,28 +9795,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L25" t="n">
-        <v>86.64326036904015</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M25" t="n">
-        <v>464.1251183645587</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>446.7260637956006</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q25" t="n">
-        <v>169.8916917821538</v>
+        <v>57.48074057459007</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -10038,16 +10038,16 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M28" t="n">
-        <v>464.1251183645587</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
         <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>182.3522595481338</v>
+        <v>224.0431539046504</v>
       </c>
       <c r="P28" t="n">
         <v>351.0170646165068</v>
@@ -10269,28 +10269,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N31" t="n">
-        <v>165.1228412885341</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O31" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P31" t="n">
-        <v>351.0170646165068</v>
+        <v>110.1604120959951</v>
       </c>
       <c r="Q31" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10372,7 +10372,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>-1.595830044285286e-13</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10506,28 +10506,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M34" t="n">
-        <v>464.1251183645587</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>446.7260637956006</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q34" t="n">
-        <v>110.1604120959955</v>
+        <v>57.48074057459007</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10743,28 +10743,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M37" t="n">
-        <v>464.1251183645587</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
         <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>182.3522595481336</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P37" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q37" t="n">
-        <v>169.8916917821538</v>
+        <v>57.48074057459007</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10980,28 +10980,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>422.4342240080415</v>
+        <v>197.6146395350767</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O40" t="n">
-        <v>224.0431539046504</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P40" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11217,7 +11217,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
         <v>277.5337924960966</v>
@@ -11226,19 +11226,19 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M43" t="n">
-        <v>224.0431539046508</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
         <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P43" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q43" t="n">
-        <v>169.8916917821538</v>
+        <v>57.48074057459098</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11454,7 +11454,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
         <v>277.5337924960966</v>
@@ -11463,19 +11463,19 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
-        <v>464.1251183645587</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>110.9351001565992</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q46" t="n">
-        <v>169.8916917821538</v>
+        <v>57.48074057459098</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -23257,22 +23257,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>422.0365747800587</v>
+        <v>201.7865128814078</v>
       </c>
       <c r="C11" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>395.4476524459058</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23311,7 +23311,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>209.3908366544989</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>256.4751836067882</v>
@@ -23320,13 +23320,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
-        <v>345.6899550498929</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23418,16 +23418,16 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>45.0564412241072</v>
       </c>
       <c r="D13" t="n">
-        <v>160.4001320113567</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23436,7 +23436,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>61.65479693373585</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,7 +23466,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>142.5131431297577</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23478,13 +23478,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="14">
@@ -23497,19 +23497,19 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D14" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>395.4476524459058</v>
+        <v>376.6123923130371</v>
       </c>
       <c r="H14" t="n">
         <v>266.4097384417204</v>
@@ -23545,25 +23545,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>38.69418351668036</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>209.3908366544989</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>256.4751836067882</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
-        <v>105.3704575591146</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X14" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23655,25 +23655,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>65.72636539683798</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>41.49198325927304</v>
       </c>
       <c r="E16" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>163.066849283703</v>
       </c>
       <c r="H16" t="n">
         <v>130.781282966242</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>61.65479693373584</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,7 +23703,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>142.5131431297577</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23734,19 +23734,19 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C17" t="n">
-        <v>250.4230403485232</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E17" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G17" t="n">
-        <v>395.4476524459058</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -23788,16 +23788,16 @@
         <v>209.3908366544989</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>172.7281412633925</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23895,22 +23895,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>164.2192128704925</v>
+        <v>41.49198325927304</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>132.3510055822972</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>163.066849283703</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>130.781282966242</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>61.65479693373584</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23940,7 +23940,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>142.5131431297577</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23955,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -23971,16 +23971,16 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>406.0267067701181</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>54.08628303724737</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -24019,7 +24019,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>38.69418351668036</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>209.3908366544989</v>
@@ -24031,7 +24031,7 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X20" t="n">
         <v>414.9510387864824</v>
@@ -24141,7 +24141,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>107.3622426439678</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>130.781282966242</v>
@@ -24177,16 +24177,16 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>142.5131431297577</v>
       </c>
       <c r="T22" t="n">
-        <v>239.7097330287659</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>204.5588325429761</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24208,22 +24208,22 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>395.4476524459058</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>266.4097384417204</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24256,19 +24256,19 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>38.69418351668036</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>209.3908366544989</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>256.4751836067882</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>174.8084280100179</v>
       </c>
       <c r="W23" t="n">
-        <v>377.8577549087448</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X23" t="n">
         <v>414.9510387864824</v>
@@ -24363,28 +24363,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>36.39232458884223</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F25" t="n">
-        <v>41.49198325927298</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>163.066849283703</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>130.781282966242</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>61.65479693373585</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24414,7 +24414,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>142.5131431297577</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24442,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -24454,7 +24454,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G26" t="n">
         <v>395.4476524459058</v>
@@ -24493,10 +24493,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>38.69418351668036</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>209.3908366544989</v>
+        <v>2.426628847198089</v>
       </c>
       <c r="U26" t="n">
         <v>256.4751836067882</v>
@@ -24505,13 +24505,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W26" t="n">
-        <v>160.097051654187</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="27">
@@ -24603,25 +24603,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D28" t="n">
-        <v>51.25416246094414</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>163.066849283703</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>61.65479693373585</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,7 +24651,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>142.5131431297577</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24660,10 +24660,10 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>37.54468817563182</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24682,19 +24682,19 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C29" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G29" t="n">
-        <v>96.40054879103246</v>
+        <v>395.4476524459058</v>
       </c>
       <c r="H29" t="n">
         <v>266.4097384417204</v>
@@ -24730,25 +24730,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>38.69418351668036</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>209.3908366544989</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>256.4751836067882</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>134.1932604414956</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y29" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24837,13 +24837,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>40.33961967248447</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24852,13 +24852,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>163.066849283703</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>130.781282966242</v>
       </c>
       <c r="I31" t="n">
-        <v>44.02763062745355</v>
+        <v>61.65479693373585</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24919,22 +24919,22 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>142.0507369697522</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>395.4476524459058</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>124.5046508526295</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -24967,16 +24967,16 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>38.69418351668036</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>256.4751836067882</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W32" t="n">
         <v>400.806900043077</v>
@@ -25086,10 +25086,10 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>41.49198325927389</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G34" t="n">
-        <v>163.066849283703</v>
+        <v>29.61884904511555</v>
       </c>
       <c r="H34" t="n">
         <v>130.781282966242</v>
@@ -25153,25 +25153,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>412.3640834689048</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>230.7686862309885</v>
       </c>
       <c r="E35" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>395.4476524459058</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>266.4097384417204</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25204,22 +25204,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>38.69418351668036</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>209.3908366544989</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>256.4751836067882</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W35" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X35" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>404.2032624633431</v>
@@ -25323,13 +25323,13 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>164.5040211076115</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>33.7227381413696</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>130.781282966242</v>
       </c>
       <c r="I37" t="n">
         <v>61.65479693373585</v>
@@ -25390,22 +25390,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>395.4476524459058</v>
       </c>
       <c r="H38" t="n">
         <v>266.4097384417204</v>
@@ -25441,25 +25441,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>38.69418351668036</v>
+        <v>38.69418351668035</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>209.3908366544989</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>256.4751836067882</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W38" t="n">
-        <v>400.806900043077</v>
+        <v>177.9303639709019</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y38" t="n">
-        <v>99.7969112112994</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="39">
@@ -25551,25 +25551,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>32.28843549258829</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>174.9399834978613</v>
+        <v>41.49198325927301</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>163.066849283703</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>130.781282966242</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>61.65479693373585</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,7 +25599,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>142.5131431297577</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25627,19 +25627,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D41" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>43.91399024372089</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -25684,13 +25684,13 @@
         <v>209.3908366544989</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>256.4751836067882</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
-        <v>206.5995927017397</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
         <v>414.9510387864824</v>
@@ -25791,7 +25791,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>41.49198325927304</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -25800,13 +25800,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>163.066849283703</v>
       </c>
       <c r="H43" t="n">
         <v>130.781282966242</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>61.65479693373585</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25842,7 +25842,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>266.2136294767118</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25864,22 +25864,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>82.22738588622639</v>
+        <v>389.2045139114679</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
-        <v>395.4476524459058</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -25918,22 +25918,22 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>209.3908366544989</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>256.4751836067882</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26034,16 +26034,16 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>127.6887720733825</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>130.781282966242</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>61.65479693373585</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,7 +26073,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>142.5131431297577</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26085,13 +26085,13 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>172.131992174872</v>
       </c>
     </row>
   </sheetData>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>309475.7268265338</v>
+        <v>309475.7268265339</v>
       </c>
     </row>
     <row r="8">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>309475.7268265338</v>
+        <v>309475.7268265339</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>309475.7268265338</v>
+        <v>309475.726826534</v>
       </c>
     </row>
   </sheetData>
@@ -26313,16 +26313,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>444876.937956323</v>
+        <v>444876.9379563229</v>
       </c>
       <c r="C2" t="n">
-        <v>444876.9379563229</v>
+        <v>444876.9379563228</v>
       </c>
       <c r="D2" t="n">
         <v>444876.9379563229</v>
       </c>
       <c r="E2" t="n">
-        <v>274047.378456193</v>
+        <v>274047.3784561929</v>
       </c>
       <c r="F2" t="n">
         <v>274047.3784561929</v>
@@ -26331,7 +26331,7 @@
         <v>274047.3784561929</v>
       </c>
       <c r="H2" t="n">
-        <v>274047.3784561928</v>
+        <v>274047.3784561929</v>
       </c>
       <c r="I2" t="n">
         <v>274047.3784561929</v>
@@ -26340,19 +26340,19 @@
         <v>274047.3784561928</v>
       </c>
       <c r="K2" t="n">
+        <v>274047.3784561928</v>
+      </c>
+      <c r="L2" t="n">
         <v>274047.3784561929</v>
-      </c>
-      <c r="L2" t="n">
-        <v>274047.3784561928</v>
       </c>
       <c r="M2" t="n">
         <v>274047.3784561928</v>
       </c>
       <c r="N2" t="n">
-        <v>274047.3784561928</v>
+        <v>274047.3784561929</v>
       </c>
       <c r="O2" t="n">
-        <v>274047.3784561929</v>
+        <v>274047.378456193</v>
       </c>
       <c r="P2" t="n">
         <v>274047.3784561929</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>568764.8628797386</v>
+        <v>568764.8628797387</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>298730.7163118328</v>
+        <v>298730.7163118329</v>
       </c>
       <c r="C4" t="n">
-        <v>298730.7163118328</v>
+        <v>298730.7163118329</v>
       </c>
       <c r="D4" t="n">
-        <v>298730.7163118328</v>
+        <v>298730.7163118329</v>
       </c>
       <c r="E4" t="n">
         <v>19787.23015616127</v>
@@ -26432,28 +26432,28 @@
         <v>19787.23015616127</v>
       </c>
       <c r="G4" t="n">
+        <v>19787.23015616126</v>
+      </c>
+      <c r="H4" t="n">
+        <v>19787.23015616126</v>
+      </c>
+      <c r="I4" t="n">
+        <v>19787.23015616125</v>
+      </c>
+      <c r="J4" t="n">
+        <v>19787.23015616125</v>
+      </c>
+      <c r="K4" t="n">
+        <v>19787.23015616122</v>
+      </c>
+      <c r="L4" t="n">
+        <v>19787.23015616121</v>
+      </c>
+      <c r="M4" t="n">
+        <v>19787.23015616125</v>
+      </c>
+      <c r="N4" t="n">
         <v>19787.23015616127</v>
-      </c>
-      <c r="H4" t="n">
-        <v>19787.23015616127</v>
-      </c>
-      <c r="I4" t="n">
-        <v>19787.23015616127</v>
-      </c>
-      <c r="J4" t="n">
-        <v>19787.23015616127</v>
-      </c>
-      <c r="K4" t="n">
-        <v>19787.23015616127</v>
-      </c>
-      <c r="L4" t="n">
-        <v>19787.23015616126</v>
-      </c>
-      <c r="M4" t="n">
-        <v>19787.23015616127</v>
-      </c>
-      <c r="N4" t="n">
-        <v>19787.23015616126</v>
       </c>
       <c r="O4" t="n">
         <v>19787.23015616127</v>
@@ -26478,16 +26478,16 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>47524.27844205807</v>
+        <v>47524.27844205809</v>
       </c>
       <c r="F5" t="n">
-        <v>47524.27844205807</v>
+        <v>47524.27844205809</v>
       </c>
       <c r="G5" t="n">
-        <v>47524.27844205807</v>
+        <v>47524.27844205809</v>
       </c>
       <c r="H5" t="n">
-        <v>47524.27844205807</v>
+        <v>47524.27844205809</v>
       </c>
       <c r="I5" t="n">
         <v>47524.27844205807</v>
@@ -26499,19 +26499,19 @@
         <v>47524.27844205807</v>
       </c>
       <c r="L5" t="n">
-        <v>47524.27844205806</v>
+        <v>47524.27844205807</v>
       </c>
       <c r="M5" t="n">
-        <v>47524.27844205806</v>
+        <v>47524.27844205807</v>
       </c>
       <c r="N5" t="n">
-        <v>47524.27844205806</v>
+        <v>47524.27844205809</v>
       </c>
       <c r="O5" t="n">
-        <v>47524.27844205807</v>
+        <v>47524.27844205809</v>
       </c>
       <c r="P5" t="n">
-        <v>47524.27844205807</v>
+        <v>47524.27844205809</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>112518.6216444902</v>
+        <v>112486.7149269884</v>
       </c>
       <c r="C6" t="n">
-        <v>112518.62164449</v>
+        <v>112486.7149269884</v>
       </c>
       <c r="D6" t="n">
-        <v>112518.62164449</v>
+        <v>112486.7149269884</v>
       </c>
       <c r="E6" t="n">
-        <v>-362028.993021765</v>
+        <v>-362563.3396201493</v>
       </c>
       <c r="F6" t="n">
-        <v>206735.8698579736</v>
+        <v>206201.5232595892</v>
       </c>
       <c r="G6" t="n">
-        <v>206735.8698579736</v>
+        <v>206201.5232595892</v>
       </c>
       <c r="H6" t="n">
-        <v>206735.8698579735</v>
+        <v>206201.5232595892</v>
       </c>
       <c r="I6" t="n">
-        <v>206735.8698579736</v>
+        <v>206201.5232595893</v>
       </c>
       <c r="J6" t="n">
-        <v>206735.8698579735</v>
+        <v>206201.5232595892</v>
       </c>
       <c r="K6" t="n">
-        <v>206735.8698579736</v>
+        <v>206201.5232595893</v>
       </c>
       <c r="L6" t="n">
-        <v>206735.8698579735</v>
+        <v>206201.5232595893</v>
       </c>
       <c r="M6" t="n">
-        <v>54980.68995304708</v>
+        <v>54446.34335466279</v>
       </c>
       <c r="N6" t="n">
-        <v>206735.8698579735</v>
+        <v>206201.5232595892</v>
       </c>
       <c r="O6" t="n">
-        <v>206735.8698579736</v>
+        <v>206201.5232595893</v>
       </c>
       <c r="P6" t="n">
-        <v>206735.8698579736</v>
+        <v>206201.5232595892</v>
       </c>
     </row>
   </sheetData>
@@ -26746,40 +26746,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
+        <v>481.6299034943982</v>
+      </c>
+      <c r="F3" t="n">
+        <v>481.6299034943983</v>
+      </c>
+      <c r="G3" t="n">
+        <v>481.6299034943983</v>
+      </c>
+      <c r="H3" t="n">
+        <v>481.6299034943982</v>
+      </c>
+      <c r="I3" t="n">
         <v>481.6299034943981</v>
-      </c>
-      <c r="F3" t="n">
-        <v>481.6299034943981</v>
-      </c>
-      <c r="G3" t="n">
-        <v>481.629903494398</v>
-      </c>
-      <c r="H3" t="n">
-        <v>481.629903494398</v>
-      </c>
-      <c r="I3" t="n">
-        <v>481.629903494398</v>
       </c>
       <c r="J3" t="n">
         <v>481.6299034943981</v>
       </c>
       <c r="K3" t="n">
-        <v>481.629903494398</v>
+        <v>481.6299034943981</v>
       </c>
       <c r="L3" t="n">
-        <v>481.629903494398</v>
+        <v>481.6299034943981</v>
       </c>
       <c r="M3" t="n">
-        <v>481.629903494398</v>
+        <v>481.6299034943981</v>
       </c>
       <c r="N3" t="n">
-        <v>481.629903494398</v>
+        <v>481.6299034943981</v>
       </c>
       <c r="O3" t="n">
-        <v>481.6299034943981</v>
+        <v>481.6299034943982</v>
       </c>
       <c r="P3" t="n">
-        <v>481.6299034943981</v>
+        <v>481.6299034943982</v>
       </c>
     </row>
     <row r="4">
@@ -26798,25 +26798,25 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>608.9596471361874</v>
+        <v>608.9596471361875</v>
       </c>
       <c r="F4" t="n">
-        <v>608.9596471361874</v>
+        <v>608.9596471361875</v>
       </c>
       <c r="G4" t="n">
-        <v>608.9596471361874</v>
+        <v>608.9596471361875</v>
       </c>
       <c r="H4" t="n">
-        <v>608.9596471361874</v>
+        <v>608.9596471361875</v>
       </c>
       <c r="I4" t="n">
-        <v>608.9596471361874</v>
+        <v>608.9596471361873</v>
       </c>
       <c r="J4" t="n">
-        <v>608.9596471361874</v>
+        <v>608.9596471361873</v>
       </c>
       <c r="K4" t="n">
-        <v>608.9596471361874</v>
+        <v>608.9596471361873</v>
       </c>
       <c r="L4" t="n">
         <v>608.9596471361873</v>
@@ -26825,13 +26825,13 @@
         <v>608.9596471361873</v>
       </c>
       <c r="N4" t="n">
-        <v>608.9596471361872</v>
+        <v>608.9596471361875</v>
       </c>
       <c r="O4" t="n">
-        <v>608.9596471361874</v>
+        <v>608.9596471361875</v>
       </c>
       <c r="P4" t="n">
-        <v>608.9596471361874</v>
+        <v>608.9596471361875</v>
       </c>
     </row>
   </sheetData>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>481.6299034943981</v>
+        <v>481.6299034943982</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>608.9596471361874</v>
+        <v>608.9596471361875</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>608.9596471361874</v>
+        <v>608.9596471361875</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31758,16 +31758,16 @@
         <v>19.82911456949549</v>
       </c>
       <c r="I11" t="n">
-        <v>74.64537428931774</v>
+        <v>74.64537428931776</v>
       </c>
       <c r="J11" t="n">
-        <v>164.3326071224429</v>
+        <v>164.332607122443</v>
       </c>
       <c r="K11" t="n">
         <v>246.2919792427158</v>
       </c>
       <c r="L11" t="n">
-        <v>305.5469788771547</v>
+        <v>305.5469788771548</v>
       </c>
       <c r="M11" t="n">
         <v>339.9798866008472</v>
@@ -31837,25 +31837,25 @@
         <v>10.0051796933459</v>
       </c>
       <c r="I12" t="n">
-        <v>35.66787492859459</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>97.87537501106446</v>
+        <v>79.80531418618888</v>
       </c>
       <c r="K12" t="n">
         <v>167.284605254276</v>
       </c>
       <c r="L12" t="n">
-        <v>171.1968602134186</v>
+        <v>224.9347959668885</v>
       </c>
       <c r="M12" t="n">
-        <v>262.4882974044469</v>
+        <v>262.488297404447</v>
       </c>
       <c r="N12" t="n">
-        <v>269.4355815784369</v>
+        <v>269.435581578437</v>
       </c>
       <c r="O12" t="n">
-        <v>246.4809186307605</v>
+        <v>246.4809186307606</v>
       </c>
       <c r="P12" t="n">
         <v>197.8226673428218</v>
@@ -31870,7 +31870,7 @@
         <v>19.24247774810165</v>
       </c>
       <c r="T12" t="n">
-        <v>4.175640389729733</v>
+        <v>4.175640389729734</v>
       </c>
       <c r="U12" t="n">
         <v>0.06815517502279222</v>
@@ -31910,13 +31910,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.8685129407276031</v>
+        <v>0.8685129407276032</v>
       </c>
       <c r="H13" t="n">
-        <v>7.721869600287241</v>
+        <v>7.721869600287242</v>
       </c>
       <c r="I13" t="n">
-        <v>26.11855279933556</v>
+        <v>26.11855279933557</v>
       </c>
       <c r="J13" t="n">
         <v>61.40386490944154</v>
@@ -31937,7 +31937,7 @@
         <v>122.7603563857525</v>
       </c>
       <c r="P13" t="n">
-        <v>105.0426923949093</v>
+        <v>105.0426923949094</v>
       </c>
       <c r="Q13" t="n">
         <v>72.72611542765412</v>
@@ -31949,10 +31949,10 @@
         <v>15.13581188522559</v>
       </c>
       <c r="T13" t="n">
-        <v>3.710918928563394</v>
+        <v>3.710918928563395</v>
       </c>
       <c r="U13" t="n">
-        <v>0.04737343313059659</v>
+        <v>0.0473734331305966</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.936200617062905</v>
+        <v>1.936200617062906</v>
       </c>
       <c r="H14" t="n">
-        <v>19.82911456949548</v>
+        <v>19.82911456949549</v>
       </c>
       <c r="I14" t="n">
-        <v>74.64537428931773</v>
+        <v>74.64537428931776</v>
       </c>
       <c r="J14" t="n">
-        <v>164.3326071224429</v>
+        <v>164.332607122443</v>
       </c>
       <c r="K14" t="n">
-        <v>246.2919792427158</v>
+        <v>246.2919792427159</v>
       </c>
       <c r="L14" t="n">
-        <v>305.5469788771547</v>
+        <v>305.5469788771548</v>
       </c>
       <c r="M14" t="n">
-        <v>339.9798866008471</v>
+        <v>339.9798866008472</v>
       </c>
       <c r="N14" t="n">
-        <v>345.4811166040772</v>
+        <v>345.4811166040773</v>
       </c>
       <c r="O14" t="n">
-        <v>326.2280217181579</v>
+        <v>326.228021718158</v>
       </c>
       <c r="P14" t="n">
-        <v>278.4280689844173</v>
+        <v>278.4280689844175</v>
       </c>
       <c r="Q14" t="n">
         <v>209.087884385852</v>
       </c>
       <c r="R14" t="n">
-        <v>121.6248620115778</v>
+        <v>121.6248620115779</v>
       </c>
       <c r="S14" t="n">
-        <v>44.121171561321</v>
+        <v>44.12117156132102</v>
       </c>
       <c r="T14" t="n">
-        <v>8.475718201192873</v>
+        <v>8.475718201192876</v>
       </c>
       <c r="U14" t="n">
-        <v>0.1548960493650324</v>
+        <v>0.1548960493650325</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.035958660346441</v>
+        <v>1.035958660346442</v>
       </c>
       <c r="H15" t="n">
-        <v>10.00517969334589</v>
+        <v>10.0051796933459</v>
       </c>
       <c r="I15" t="n">
-        <v>35.66787492859458</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>97.87537501106445</v>
+        <v>97.87537501106448</v>
       </c>
       <c r="K15" t="n">
-        <v>167.284605254276</v>
+        <v>167.2846052542761</v>
       </c>
       <c r="L15" t="n">
-        <v>224.9347959668885</v>
+        <v>224.9347959668886</v>
       </c>
       <c r="M15" t="n">
-        <v>262.4882974044469</v>
+        <v>262.488297404447</v>
       </c>
       <c r="N15" t="n">
-        <v>269.4355815784369</v>
+        <v>269.435581578437</v>
       </c>
       <c r="O15" t="n">
-        <v>246.4809186307605</v>
+        <v>246.4809186307606</v>
       </c>
       <c r="P15" t="n">
-        <v>197.8226673428217</v>
+        <v>197.8226673428218</v>
       </c>
       <c r="Q15" t="n">
         <v>132.2392142575563</v>
       </c>
       <c r="R15" t="n">
-        <v>10.58237475470651</v>
+        <v>46.25024968330035</v>
       </c>
       <c r="S15" t="n">
         <v>19.24247774810165</v>
       </c>
       <c r="T15" t="n">
-        <v>4.175640389729733</v>
+        <v>4.175640389729734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.06815517502279221</v>
+        <v>0.06815517502279224</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,16 +32147,16 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.868512940727603</v>
+        <v>0.8685129407276033</v>
       </c>
       <c r="H16" t="n">
-        <v>7.721869600287239</v>
+        <v>7.721869600287243</v>
       </c>
       <c r="I16" t="n">
-        <v>26.11855279933556</v>
+        <v>26.11855279933557</v>
       </c>
       <c r="J16" t="n">
-        <v>61.40386490944153</v>
+        <v>61.40386490944155</v>
       </c>
       <c r="K16" t="n">
         <v>100.9054125681706</v>
@@ -32171,25 +32171,25 @@
         <v>132.9061666478887</v>
       </c>
       <c r="O16" t="n">
-        <v>122.7603563857525</v>
+        <v>122.7603563857526</v>
       </c>
       <c r="P16" t="n">
-        <v>105.0426923949093</v>
+        <v>105.0426923949094</v>
       </c>
       <c r="Q16" t="n">
-        <v>72.72611542765411</v>
+        <v>72.72611542765414</v>
       </c>
       <c r="R16" t="n">
-        <v>39.0515000439884</v>
+        <v>39.05150004398841</v>
       </c>
       <c r="S16" t="n">
         <v>15.13581188522559</v>
       </c>
       <c r="T16" t="n">
-        <v>3.710918928563394</v>
+        <v>3.710918928563395</v>
       </c>
       <c r="U16" t="n">
-        <v>0.04737343313059658</v>
+        <v>0.0473734331305966</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.936200617062905</v>
+        <v>1.936200617062906</v>
       </c>
       <c r="H17" t="n">
-        <v>19.82911456949548</v>
+        <v>19.82911456949549</v>
       </c>
       <c r="I17" t="n">
-        <v>74.64537428931773</v>
+        <v>74.64537428931776</v>
       </c>
       <c r="J17" t="n">
-        <v>164.3326071224429</v>
+        <v>164.332607122443</v>
       </c>
       <c r="K17" t="n">
-        <v>246.2919792427157</v>
+        <v>246.2919792427159</v>
       </c>
       <c r="L17" t="n">
-        <v>305.5469788771547</v>
+        <v>305.5469788771548</v>
       </c>
       <c r="M17" t="n">
-        <v>339.9798866008471</v>
+        <v>339.9798866008472</v>
       </c>
       <c r="N17" t="n">
-        <v>345.4811166040771</v>
+        <v>345.4811166040773</v>
       </c>
       <c r="O17" t="n">
-        <v>326.2280217181578</v>
+        <v>326.228021718158</v>
       </c>
       <c r="P17" t="n">
-        <v>278.4280689844173</v>
+        <v>278.4280689844175</v>
       </c>
       <c r="Q17" t="n">
-        <v>209.0878843858519</v>
+        <v>209.087884385852</v>
       </c>
       <c r="R17" t="n">
-        <v>121.6248620115778</v>
+        <v>121.6248620115779</v>
       </c>
       <c r="S17" t="n">
-        <v>44.121171561321</v>
+        <v>44.12117156132102</v>
       </c>
       <c r="T17" t="n">
-        <v>8.475718201192873</v>
+        <v>8.475718201192876</v>
       </c>
       <c r="U17" t="n">
-        <v>0.1548960493650324</v>
+        <v>0.1548960493650325</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.035958660346441</v>
+        <v>1.035958660346442</v>
       </c>
       <c r="H18" t="n">
-        <v>10.00517969334589</v>
+        <v>10.0051796933459</v>
       </c>
       <c r="I18" t="n">
-        <v>35.66787492859458</v>
+        <v>35.66787492859459</v>
       </c>
       <c r="J18" t="n">
-        <v>97.87537501106443</v>
+        <v>97.87537501106448</v>
       </c>
       <c r="K18" t="n">
-        <v>167.284605254276</v>
+        <v>167.2846052542761</v>
       </c>
       <c r="L18" t="n">
-        <v>224.9347959668885</v>
+        <v>171.1968602134183</v>
       </c>
       <c r="M18" t="n">
-        <v>208.7503616509773</v>
+        <v>262.488297404447</v>
       </c>
       <c r="N18" t="n">
-        <v>269.4355815784369</v>
+        <v>269.435581578437</v>
       </c>
       <c r="O18" t="n">
-        <v>246.4809186307605</v>
+        <v>246.4809186307606</v>
       </c>
       <c r="P18" t="n">
-        <v>197.8226673428217</v>
+        <v>197.8226673428218</v>
       </c>
       <c r="Q18" t="n">
         <v>132.2392142575563</v>
       </c>
       <c r="R18" t="n">
-        <v>64.32031050817643</v>
+        <v>64.32031050817646</v>
       </c>
       <c r="S18" t="n">
         <v>19.24247774810165</v>
       </c>
       <c r="T18" t="n">
-        <v>4.175640389729733</v>
+        <v>4.175640389729734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.06815517502279221</v>
+        <v>0.06815517502279224</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,16 +32384,16 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.8685129407276029</v>
+        <v>0.8685129407276033</v>
       </c>
       <c r="H19" t="n">
-        <v>7.721869600287238</v>
+        <v>7.721869600287243</v>
       </c>
       <c r="I19" t="n">
-        <v>26.11855279933556</v>
+        <v>26.11855279933557</v>
       </c>
       <c r="J19" t="n">
-        <v>61.40386490944152</v>
+        <v>61.40386490944155</v>
       </c>
       <c r="K19" t="n">
         <v>100.9054125681706</v>
@@ -32405,28 +32405,28 @@
         <v>136.143351245146</v>
       </c>
       <c r="N19" t="n">
-        <v>132.9061666478886</v>
+        <v>132.9061666478887</v>
       </c>
       <c r="O19" t="n">
-        <v>122.7603563857525</v>
+        <v>122.7603563857526</v>
       </c>
       <c r="P19" t="n">
-        <v>105.0426923949093</v>
+        <v>105.0426923949094</v>
       </c>
       <c r="Q19" t="n">
-        <v>72.72611542765411</v>
+        <v>72.72611542765414</v>
       </c>
       <c r="R19" t="n">
-        <v>39.05150004398839</v>
+        <v>39.05150004398841</v>
       </c>
       <c r="S19" t="n">
-        <v>15.13581188522558</v>
+        <v>15.13581188522559</v>
       </c>
       <c r="T19" t="n">
-        <v>3.710918928563393</v>
+        <v>3.710918928563395</v>
       </c>
       <c r="U19" t="n">
-        <v>0.04737343313059657</v>
+        <v>0.0473734331305966</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,46 +32463,46 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.936200617062905</v>
+        <v>1.936200617062906</v>
       </c>
       <c r="H20" t="n">
-        <v>19.82911456949548</v>
+        <v>19.82911456949549</v>
       </c>
       <c r="I20" t="n">
-        <v>74.64537428931773</v>
+        <v>74.64537428931776</v>
       </c>
       <c r="J20" t="n">
-        <v>164.3326071224429</v>
+        <v>164.332607122443</v>
       </c>
       <c r="K20" t="n">
-        <v>246.2919792427157</v>
+        <v>246.2919792427158</v>
       </c>
       <c r="L20" t="n">
-        <v>305.5469788771547</v>
+        <v>305.5469788771548</v>
       </c>
       <c r="M20" t="n">
-        <v>339.9798866008471</v>
+        <v>339.9798866008472</v>
       </c>
       <c r="N20" t="n">
-        <v>345.4811166040771</v>
+        <v>345.4811166040772</v>
       </c>
       <c r="O20" t="n">
-        <v>326.2280217181578</v>
+        <v>326.2280217181579</v>
       </c>
       <c r="P20" t="n">
-        <v>278.4280689844173</v>
+        <v>278.4280689844174</v>
       </c>
       <c r="Q20" t="n">
-        <v>209.0878843858519</v>
+        <v>209.087884385852</v>
       </c>
       <c r="R20" t="n">
-        <v>121.6248620115778</v>
+        <v>121.6248620115779</v>
       </c>
       <c r="S20" t="n">
-        <v>44.121171561321</v>
+        <v>44.12117156132101</v>
       </c>
       <c r="T20" t="n">
-        <v>8.475718201192873</v>
+        <v>8.475718201192874</v>
       </c>
       <c r="U20" t="n">
         <v>0.1548960493650324</v>
@@ -32545,46 +32545,46 @@
         <v>1.035958660346441</v>
       </c>
       <c r="H21" t="n">
-        <v>10.00517969334589</v>
+        <v>10.0051796933459</v>
       </c>
       <c r="I21" t="n">
-        <v>35.66787492859458</v>
+        <v>35.66787492859459</v>
       </c>
       <c r="J21" t="n">
-        <v>97.87537501106443</v>
+        <v>97.87537501106446</v>
       </c>
       <c r="K21" t="n">
         <v>167.284605254276</v>
       </c>
       <c r="L21" t="n">
-        <v>224.9347959668885</v>
+        <v>171.1968602134184</v>
       </c>
       <c r="M21" t="n">
-        <v>262.4882974044469</v>
+        <v>262.488297404447</v>
       </c>
       <c r="N21" t="n">
-        <v>269.4355815784369</v>
+        <v>269.435581578437</v>
       </c>
       <c r="O21" t="n">
-        <v>246.4809186307605</v>
+        <v>246.4809186307606</v>
       </c>
       <c r="P21" t="n">
-        <v>197.8226673428217</v>
+        <v>197.8226673428218</v>
       </c>
       <c r="Q21" t="n">
         <v>132.2392142575563</v>
       </c>
       <c r="R21" t="n">
-        <v>10.58237475470696</v>
+        <v>64.32031050817645</v>
       </c>
       <c r="S21" t="n">
         <v>19.24247774810165</v>
       </c>
       <c r="T21" t="n">
-        <v>4.175640389729733</v>
+        <v>4.175640389729734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.06815517502279221</v>
+        <v>0.06815517502279222</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,16 +32621,16 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.8685129407276029</v>
+        <v>0.8685129407276032</v>
       </c>
       <c r="H22" t="n">
-        <v>7.721869600287238</v>
+        <v>7.721869600287242</v>
       </c>
       <c r="I22" t="n">
-        <v>26.11855279933556</v>
+        <v>26.11855279933557</v>
       </c>
       <c r="J22" t="n">
-        <v>61.40386490944152</v>
+        <v>61.40386490944154</v>
       </c>
       <c r="K22" t="n">
         <v>100.9054125681706</v>
@@ -32642,28 +32642,28 @@
         <v>136.143351245146</v>
       </c>
       <c r="N22" t="n">
-        <v>132.9061666478886</v>
+        <v>132.9061666478887</v>
       </c>
       <c r="O22" t="n">
         <v>122.7603563857525</v>
       </c>
       <c r="P22" t="n">
-        <v>105.0426923949093</v>
+        <v>105.0426923949094</v>
       </c>
       <c r="Q22" t="n">
-        <v>72.72611542765411</v>
+        <v>72.72611542765412</v>
       </c>
       <c r="R22" t="n">
-        <v>39.05150004398839</v>
+        <v>39.0515000439884</v>
       </c>
       <c r="S22" t="n">
-        <v>15.13581188522558</v>
+        <v>15.13581188522559</v>
       </c>
       <c r="T22" t="n">
-        <v>3.710918928563393</v>
+        <v>3.710918928563395</v>
       </c>
       <c r="U22" t="n">
-        <v>0.04737343313059657</v>
+        <v>0.0473734331305966</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,46 +32700,46 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1.936200617062905</v>
+        <v>1.936200617062906</v>
       </c>
       <c r="H23" t="n">
-        <v>19.82911456949548</v>
+        <v>19.82911456949549</v>
       </c>
       <c r="I23" t="n">
-        <v>74.64537428931773</v>
+        <v>74.64537428931774</v>
       </c>
       <c r="J23" t="n">
         <v>164.3326071224429</v>
       </c>
       <c r="K23" t="n">
-        <v>246.2919792427157</v>
+        <v>246.2919792427158</v>
       </c>
       <c r="L23" t="n">
         <v>305.5469788771547</v>
       </c>
       <c r="M23" t="n">
-        <v>339.9798866008471</v>
+        <v>339.9798866008472</v>
       </c>
       <c r="N23" t="n">
-        <v>345.4811166040771</v>
+        <v>345.4811166040772</v>
       </c>
       <c r="O23" t="n">
-        <v>326.2280217181578</v>
+        <v>326.2280217181579</v>
       </c>
       <c r="P23" t="n">
-        <v>278.4280689844173</v>
+        <v>278.4280689844174</v>
       </c>
       <c r="Q23" t="n">
-        <v>209.0878843858519</v>
+        <v>209.087884385852</v>
       </c>
       <c r="R23" t="n">
-        <v>121.6248620115778</v>
+        <v>121.6248620115779</v>
       </c>
       <c r="S23" t="n">
-        <v>44.121171561321</v>
+        <v>44.12117156132101</v>
       </c>
       <c r="T23" t="n">
-        <v>8.475718201192873</v>
+        <v>8.475718201192874</v>
       </c>
       <c r="U23" t="n">
         <v>0.1548960493650324</v>
@@ -32782,13 +32782,13 @@
         <v>1.035958660346441</v>
       </c>
       <c r="H24" t="n">
-        <v>10.00517969334589</v>
+        <v>10.0051796933459</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>35.66787492859459</v>
       </c>
       <c r="J24" t="n">
-        <v>79.80531418618946</v>
+        <v>97.87537501106446</v>
       </c>
       <c r="K24" t="n">
         <v>167.284605254276</v>
@@ -32806,13 +32806,13 @@
         <v>246.4809186307605</v>
       </c>
       <c r="P24" t="n">
-        <v>197.8226673428217</v>
+        <v>197.8226673428218</v>
       </c>
       <c r="Q24" t="n">
-        <v>132.2392142575563</v>
+        <v>78.50127850408626</v>
       </c>
       <c r="R24" t="n">
-        <v>64.32031050817643</v>
+        <v>64.32031050817645</v>
       </c>
       <c r="S24" t="n">
         <v>19.24247774810165</v>
@@ -32821,7 +32821,7 @@
         <v>4.175640389729733</v>
       </c>
       <c r="U24" t="n">
-        <v>0.06815517502279221</v>
+        <v>0.06815517502279222</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,16 +32858,16 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.8685129407276029</v>
+        <v>0.8685129407276031</v>
       </c>
       <c r="H25" t="n">
-        <v>7.721869600287238</v>
+        <v>7.721869600287241</v>
       </c>
       <c r="I25" t="n">
         <v>26.11855279933556</v>
       </c>
       <c r="J25" t="n">
-        <v>61.40386490944152</v>
+        <v>61.40386490944154</v>
       </c>
       <c r="K25" t="n">
         <v>100.9054125681706</v>
@@ -32879,7 +32879,7 @@
         <v>136.143351245146</v>
       </c>
       <c r="N25" t="n">
-        <v>132.9061666478886</v>
+        <v>132.9061666478887</v>
       </c>
       <c r="O25" t="n">
         <v>122.7603563857525</v>
@@ -32888,19 +32888,19 @@
         <v>105.0426923949093</v>
       </c>
       <c r="Q25" t="n">
-        <v>72.72611542765411</v>
+        <v>72.72611542765412</v>
       </c>
       <c r="R25" t="n">
-        <v>39.05150004398839</v>
+        <v>39.0515000439884</v>
       </c>
       <c r="S25" t="n">
-        <v>15.13581188522558</v>
+        <v>15.13581188522559</v>
       </c>
       <c r="T25" t="n">
-        <v>3.710918928563393</v>
+        <v>3.710918928563394</v>
       </c>
       <c r="U25" t="n">
-        <v>0.04737343313059657</v>
+        <v>0.04737343313059659</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,13 +32937,13 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1.936200617062905</v>
+        <v>1.936200617062906</v>
       </c>
       <c r="H26" t="n">
-        <v>19.82911456949548</v>
+        <v>19.82911456949549</v>
       </c>
       <c r="I26" t="n">
-        <v>74.64537428931773</v>
+        <v>74.64537428931774</v>
       </c>
       <c r="J26" t="n">
         <v>164.3326071224429</v>
@@ -32955,7 +32955,7 @@
         <v>305.5469788771547</v>
       </c>
       <c r="M26" t="n">
-        <v>339.9798866008471</v>
+        <v>339.9798866008472</v>
       </c>
       <c r="N26" t="n">
         <v>345.4811166040772</v>
@@ -32964,19 +32964,19 @@
         <v>326.2280217181579</v>
       </c>
       <c r="P26" t="n">
-        <v>278.4280689844173</v>
+        <v>278.4280689844174</v>
       </c>
       <c r="Q26" t="n">
         <v>209.087884385852</v>
       </c>
       <c r="R26" t="n">
-        <v>121.6248620115778</v>
+        <v>121.6248620115779</v>
       </c>
       <c r="S26" t="n">
-        <v>44.121171561321</v>
+        <v>44.12117156132101</v>
       </c>
       <c r="T26" t="n">
-        <v>8.475718201192873</v>
+        <v>8.475718201192874</v>
       </c>
       <c r="U26" t="n">
         <v>0.1548960493650324</v>
@@ -33019,13 +33019,13 @@
         <v>1.035958660346441</v>
       </c>
       <c r="H27" t="n">
-        <v>10.00517969334589</v>
+        <v>10.0051796933459</v>
       </c>
       <c r="I27" t="n">
-        <v>35.66787492859458</v>
+        <v>35.66787492859459</v>
       </c>
       <c r="J27" t="n">
-        <v>97.87537501106445</v>
+        <v>97.87537501106446</v>
       </c>
       <c r="K27" t="n">
         <v>167.284605254276</v>
@@ -33040,16 +33040,16 @@
         <v>269.4355815784369</v>
       </c>
       <c r="O27" t="n">
-        <v>246.4809186307605</v>
+        <v>192.7429828772906</v>
       </c>
       <c r="P27" t="n">
-        <v>197.8226673428217</v>
+        <v>197.8226673428218</v>
       </c>
       <c r="Q27" t="n">
         <v>132.2392142575563</v>
       </c>
       <c r="R27" t="n">
-        <v>10.58237475470651</v>
+        <v>64.32031050817645</v>
       </c>
       <c r="S27" t="n">
         <v>19.24247774810165</v>
@@ -33058,7 +33058,7 @@
         <v>4.175640389729733</v>
       </c>
       <c r="U27" t="n">
-        <v>0.06815517502279221</v>
+        <v>0.06815517502279222</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,16 +33095,16 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.868512940727603</v>
+        <v>0.8685129407276031</v>
       </c>
       <c r="H28" t="n">
-        <v>7.721869600287239</v>
+        <v>7.721869600287241</v>
       </c>
       <c r="I28" t="n">
         <v>26.11855279933556</v>
       </c>
       <c r="J28" t="n">
-        <v>61.40386490944153</v>
+        <v>61.40386490944154</v>
       </c>
       <c r="K28" t="n">
         <v>100.9054125681706</v>
@@ -33125,7 +33125,7 @@
         <v>105.0426923949093</v>
       </c>
       <c r="Q28" t="n">
-        <v>72.72611542765411</v>
+        <v>72.72611542765412</v>
       </c>
       <c r="R28" t="n">
         <v>39.0515000439884</v>
@@ -33137,7 +33137,7 @@
         <v>3.710918928563394</v>
       </c>
       <c r="U28" t="n">
-        <v>0.04737343313059658</v>
+        <v>0.04737343313059659</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,46 +33174,46 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1.936200617062905</v>
+        <v>1.936200617062906</v>
       </c>
       <c r="H29" t="n">
-        <v>19.82911456949548</v>
+        <v>19.82911456949549</v>
       </c>
       <c r="I29" t="n">
-        <v>74.64537428931773</v>
+        <v>74.64537428931774</v>
       </c>
       <c r="J29" t="n">
         <v>164.3326071224429</v>
       </c>
       <c r="K29" t="n">
-        <v>246.2919792427157</v>
+        <v>246.2919792427158</v>
       </c>
       <c r="L29" t="n">
         <v>305.5469788771547</v>
       </c>
       <c r="M29" t="n">
-        <v>339.9798866008471</v>
+        <v>339.9798866008472</v>
       </c>
       <c r="N29" t="n">
-        <v>345.4811166040771</v>
+        <v>345.4811166040772</v>
       </c>
       <c r="O29" t="n">
-        <v>326.2280217181578</v>
+        <v>326.2280217181579</v>
       </c>
       <c r="P29" t="n">
-        <v>278.4280689844173</v>
+        <v>278.4280689844174</v>
       </c>
       <c r="Q29" t="n">
-        <v>209.0878843858519</v>
+        <v>209.087884385852</v>
       </c>
       <c r="R29" t="n">
-        <v>121.6248620115778</v>
+        <v>121.6248620115779</v>
       </c>
       <c r="S29" t="n">
-        <v>44.121171561321</v>
+        <v>44.12117156132101</v>
       </c>
       <c r="T29" t="n">
-        <v>8.475718201192873</v>
+        <v>8.475718201192874</v>
       </c>
       <c r="U29" t="n">
         <v>0.1548960493650324</v>
@@ -33256,13 +33256,13 @@
         <v>1.035958660346441</v>
       </c>
       <c r="H30" t="n">
-        <v>10.00517969334589</v>
+        <v>10.0051796933459</v>
       </c>
       <c r="I30" t="n">
-        <v>35.66787492859458</v>
+        <v>35.66787492859459</v>
       </c>
       <c r="J30" t="n">
-        <v>97.87537501106443</v>
+        <v>44.13743925759462</v>
       </c>
       <c r="K30" t="n">
         <v>167.284605254276</v>
@@ -33280,13 +33280,13 @@
         <v>246.4809186307605</v>
       </c>
       <c r="P30" t="n">
-        <v>197.8226673428217</v>
+        <v>197.8226673428218</v>
       </c>
       <c r="Q30" t="n">
         <v>132.2392142575563</v>
       </c>
       <c r="R30" t="n">
-        <v>10.58237475470696</v>
+        <v>64.32031050817645</v>
       </c>
       <c r="S30" t="n">
         <v>19.24247774810165</v>
@@ -33295,7 +33295,7 @@
         <v>4.175640389729733</v>
       </c>
       <c r="U30" t="n">
-        <v>0.06815517502279221</v>
+        <v>0.06815517502279222</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,16 +33332,16 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.8685129407276029</v>
+        <v>0.8685129407276031</v>
       </c>
       <c r="H31" t="n">
-        <v>7.721869600287238</v>
+        <v>7.721869600287241</v>
       </c>
       <c r="I31" t="n">
         <v>26.11855279933556</v>
       </c>
       <c r="J31" t="n">
-        <v>61.40386490944152</v>
+        <v>61.40386490944154</v>
       </c>
       <c r="K31" t="n">
         <v>100.9054125681706</v>
@@ -33353,7 +33353,7 @@
         <v>136.143351245146</v>
       </c>
       <c r="N31" t="n">
-        <v>132.9061666478886</v>
+        <v>132.9061666478887</v>
       </c>
       <c r="O31" t="n">
         <v>122.7603563857525</v>
@@ -33362,19 +33362,19 @@
         <v>105.0426923949093</v>
       </c>
       <c r="Q31" t="n">
-        <v>72.72611542765411</v>
+        <v>72.72611542765412</v>
       </c>
       <c r="R31" t="n">
-        <v>39.05150004398839</v>
+        <v>39.0515000439884</v>
       </c>
       <c r="S31" t="n">
-        <v>15.13581188522558</v>
+        <v>15.13581188522559</v>
       </c>
       <c r="T31" t="n">
-        <v>3.710918928563393</v>
+        <v>3.710918928563394</v>
       </c>
       <c r="U31" t="n">
-        <v>0.04737343313059657</v>
+        <v>0.04737343313059659</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,46 +33411,46 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.936200617062905</v>
+        <v>1.936200617062906</v>
       </c>
       <c r="H32" t="n">
-        <v>19.82911456949548</v>
+        <v>19.82911456949549</v>
       </c>
       <c r="I32" t="n">
-        <v>74.64537428931773</v>
+        <v>74.64537428931774</v>
       </c>
       <c r="J32" t="n">
         <v>164.3326071224429</v>
       </c>
       <c r="K32" t="n">
-        <v>246.2919792427157</v>
+        <v>246.2919792427158</v>
       </c>
       <c r="L32" t="n">
         <v>305.5469788771547</v>
       </c>
       <c r="M32" t="n">
-        <v>339.9798866008471</v>
+        <v>339.9798866008472</v>
       </c>
       <c r="N32" t="n">
-        <v>345.4811166040771</v>
+        <v>345.4811166040772</v>
       </c>
       <c r="O32" t="n">
-        <v>326.2280217181578</v>
+        <v>326.2280217181579</v>
       </c>
       <c r="P32" t="n">
-        <v>278.4280689844173</v>
+        <v>278.4280689844174</v>
       </c>
       <c r="Q32" t="n">
-        <v>209.0878843858519</v>
+        <v>209.087884385852</v>
       </c>
       <c r="R32" t="n">
-        <v>121.6248620115778</v>
+        <v>121.6248620115779</v>
       </c>
       <c r="S32" t="n">
-        <v>44.121171561321</v>
+        <v>44.12117156132101</v>
       </c>
       <c r="T32" t="n">
-        <v>8.475718201192873</v>
+        <v>8.475718201192874</v>
       </c>
       <c r="U32" t="n">
         <v>0.1548960493650324</v>
@@ -33493,16 +33493,16 @@
         <v>1.035958660346441</v>
       </c>
       <c r="H33" t="n">
-        <v>10.00517969334589</v>
+        <v>10.0051796933459</v>
       </c>
       <c r="I33" t="n">
-        <v>35.66787492859458</v>
+        <v>35.66787492859459</v>
       </c>
       <c r="J33" t="n">
-        <v>97.87537501106443</v>
+        <v>44.13743925759462</v>
       </c>
       <c r="K33" t="n">
-        <v>113.5466695008064</v>
+        <v>167.284605254276</v>
       </c>
       <c r="L33" t="n">
         <v>224.9347959668885</v>
@@ -33517,13 +33517,13 @@
         <v>246.4809186307605</v>
       </c>
       <c r="P33" t="n">
-        <v>197.8226673428217</v>
+        <v>197.8226673428218</v>
       </c>
       <c r="Q33" t="n">
         <v>132.2392142575563</v>
       </c>
       <c r="R33" t="n">
-        <v>64.32031050817643</v>
+        <v>64.32031050817645</v>
       </c>
       <c r="S33" t="n">
         <v>19.24247774810165</v>
@@ -33532,7 +33532,7 @@
         <v>4.175640389729733</v>
       </c>
       <c r="U33" t="n">
-        <v>0.06815517502279221</v>
+        <v>0.06815517502279222</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,16 +33569,16 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.8685129407276029</v>
+        <v>0.8685129407276031</v>
       </c>
       <c r="H34" t="n">
-        <v>7.721869600287238</v>
+        <v>7.721869600287241</v>
       </c>
       <c r="I34" t="n">
         <v>26.11855279933556</v>
       </c>
       <c r="J34" t="n">
-        <v>61.40386490944152</v>
+        <v>61.40386490944154</v>
       </c>
       <c r="K34" t="n">
         <v>100.9054125681706</v>
@@ -33590,7 +33590,7 @@
         <v>136.143351245146</v>
       </c>
       <c r="N34" t="n">
-        <v>132.9061666478886</v>
+        <v>132.9061666478887</v>
       </c>
       <c r="O34" t="n">
         <v>122.7603563857525</v>
@@ -33599,19 +33599,19 @@
         <v>105.0426923949093</v>
       </c>
       <c r="Q34" t="n">
-        <v>72.72611542765411</v>
+        <v>72.72611542765412</v>
       </c>
       <c r="R34" t="n">
-        <v>39.05150004398839</v>
+        <v>39.0515000439884</v>
       </c>
       <c r="S34" t="n">
-        <v>15.13581188522558</v>
+        <v>15.13581188522559</v>
       </c>
       <c r="T34" t="n">
-        <v>3.710918928563393</v>
+        <v>3.710918928563394</v>
       </c>
       <c r="U34" t="n">
-        <v>0.04737343313059657</v>
+        <v>0.04737343313059659</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,46 +33648,46 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.936200617062905</v>
+        <v>1.936200617062906</v>
       </c>
       <c r="H35" t="n">
-        <v>19.82911456949548</v>
+        <v>19.82911456949549</v>
       </c>
       <c r="I35" t="n">
-        <v>74.64537428931773</v>
+        <v>74.64537428931774</v>
       </c>
       <c r="J35" t="n">
         <v>164.3326071224429</v>
       </c>
       <c r="K35" t="n">
-        <v>246.2919792427157</v>
+        <v>246.2919792427158</v>
       </c>
       <c r="L35" t="n">
         <v>305.5469788771547</v>
       </c>
       <c r="M35" t="n">
-        <v>339.9798866008471</v>
+        <v>339.9798866008472</v>
       </c>
       <c r="N35" t="n">
-        <v>345.4811166040771</v>
+        <v>345.4811166040772</v>
       </c>
       <c r="O35" t="n">
-        <v>326.2280217181578</v>
+        <v>326.2280217181579</v>
       </c>
       <c r="P35" t="n">
-        <v>278.4280689844173</v>
+        <v>278.4280689844174</v>
       </c>
       <c r="Q35" t="n">
-        <v>209.0878843858519</v>
+        <v>209.087884385852</v>
       </c>
       <c r="R35" t="n">
-        <v>121.6248620115778</v>
+        <v>121.6248620115779</v>
       </c>
       <c r="S35" t="n">
-        <v>44.121171561321</v>
+        <v>44.12117156132101</v>
       </c>
       <c r="T35" t="n">
-        <v>8.475718201192873</v>
+        <v>8.475718201192874</v>
       </c>
       <c r="U35" t="n">
         <v>0.1548960493650324</v>
@@ -33730,16 +33730,16 @@
         <v>1.035958660346441</v>
       </c>
       <c r="H36" t="n">
-        <v>10.00517969334589</v>
+        <v>10.0051796933459</v>
       </c>
       <c r="I36" t="n">
-        <v>35.66787492859458</v>
+        <v>35.66787492859459</v>
       </c>
       <c r="J36" t="n">
-        <v>97.87537501106443</v>
+        <v>97.87537501106446</v>
       </c>
       <c r="K36" t="n">
-        <v>113.5466695008064</v>
+        <v>167.284605254276</v>
       </c>
       <c r="L36" t="n">
         <v>224.9347959668885</v>
@@ -33754,13 +33754,13 @@
         <v>246.4809186307605</v>
       </c>
       <c r="P36" t="n">
-        <v>197.8226673428217</v>
+        <v>197.8226673428218</v>
       </c>
       <c r="Q36" t="n">
         <v>132.2392142575563</v>
       </c>
       <c r="R36" t="n">
-        <v>64.32031050817643</v>
+        <v>10.58237475470628</v>
       </c>
       <c r="S36" t="n">
         <v>19.24247774810165</v>
@@ -33769,7 +33769,7 @@
         <v>4.175640389729733</v>
       </c>
       <c r="U36" t="n">
-        <v>0.06815517502279221</v>
+        <v>0.06815517502279222</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,16 +33806,16 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.8685129407276029</v>
+        <v>0.8685129407276031</v>
       </c>
       <c r="H37" t="n">
-        <v>7.721869600287238</v>
+        <v>7.721869600287241</v>
       </c>
       <c r="I37" t="n">
         <v>26.11855279933556</v>
       </c>
       <c r="J37" t="n">
-        <v>61.40386490944152</v>
+        <v>61.40386490944154</v>
       </c>
       <c r="K37" t="n">
         <v>100.9054125681706</v>
@@ -33827,7 +33827,7 @@
         <v>136.143351245146</v>
       </c>
       <c r="N37" t="n">
-        <v>132.9061666478886</v>
+        <v>132.9061666478887</v>
       </c>
       <c r="O37" t="n">
         <v>122.7603563857525</v>
@@ -33836,19 +33836,19 @@
         <v>105.0426923949093</v>
       </c>
       <c r="Q37" t="n">
-        <v>72.72611542765411</v>
+        <v>72.72611542765412</v>
       </c>
       <c r="R37" t="n">
-        <v>39.05150004398839</v>
+        <v>39.0515000439884</v>
       </c>
       <c r="S37" t="n">
-        <v>15.13581188522558</v>
+        <v>15.13581188522559</v>
       </c>
       <c r="T37" t="n">
-        <v>3.710918928563393</v>
+        <v>3.710918928563394</v>
       </c>
       <c r="U37" t="n">
-        <v>0.04737343313059657</v>
+        <v>0.04737343313059659</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,46 +33885,46 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1.936200617062905</v>
+        <v>1.936200617062906</v>
       </c>
       <c r="H38" t="n">
-        <v>19.82911456949548</v>
+        <v>19.82911456949549</v>
       </c>
       <c r="I38" t="n">
-        <v>74.64537428931773</v>
+        <v>74.64537428931774</v>
       </c>
       <c r="J38" t="n">
         <v>164.3326071224429</v>
       </c>
       <c r="K38" t="n">
-        <v>246.2919792427157</v>
+        <v>246.2919792427158</v>
       </c>
       <c r="L38" t="n">
         <v>305.5469788771547</v>
       </c>
       <c r="M38" t="n">
-        <v>339.9798866008471</v>
+        <v>339.9798866008472</v>
       </c>
       <c r="N38" t="n">
-        <v>345.4811166040771</v>
+        <v>345.4811166040772</v>
       </c>
       <c r="O38" t="n">
-        <v>326.2280217181578</v>
+        <v>326.2280217181579</v>
       </c>
       <c r="P38" t="n">
-        <v>278.4280689844173</v>
+        <v>278.4280689844174</v>
       </c>
       <c r="Q38" t="n">
-        <v>209.0878843858519</v>
+        <v>209.087884385852</v>
       </c>
       <c r="R38" t="n">
-        <v>121.6248620115778</v>
+        <v>121.6248620115779</v>
       </c>
       <c r="S38" t="n">
-        <v>44.121171561321</v>
+        <v>44.12117156132101</v>
       </c>
       <c r="T38" t="n">
-        <v>8.475718201192873</v>
+        <v>8.475718201192874</v>
       </c>
       <c r="U38" t="n">
         <v>0.1548960493650324</v>
@@ -33967,13 +33967,13 @@
         <v>1.035958660346441</v>
       </c>
       <c r="H39" t="n">
-        <v>10.00517969334589</v>
+        <v>10.0051796933459</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>35.66787492859459</v>
       </c>
       <c r="J39" t="n">
-        <v>79.80531418618946</v>
+        <v>97.87537501106446</v>
       </c>
       <c r="K39" t="n">
         <v>167.284605254276</v>
@@ -33991,13 +33991,13 @@
         <v>246.4809186307605</v>
       </c>
       <c r="P39" t="n">
-        <v>197.8226673428217</v>
+        <v>144.0847315893518</v>
       </c>
       <c r="Q39" t="n">
         <v>132.2392142575563</v>
       </c>
       <c r="R39" t="n">
-        <v>64.32031050817643</v>
+        <v>64.32031050817645</v>
       </c>
       <c r="S39" t="n">
         <v>19.24247774810165</v>
@@ -34006,7 +34006,7 @@
         <v>4.175640389729733</v>
       </c>
       <c r="U39" t="n">
-        <v>0.06815517502279221</v>
+        <v>0.06815517502279222</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,16 +34043,16 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.8685129407276029</v>
+        <v>0.8685129407276031</v>
       </c>
       <c r="H40" t="n">
-        <v>7.721869600287238</v>
+        <v>7.721869600287241</v>
       </c>
       <c r="I40" t="n">
         <v>26.11855279933556</v>
       </c>
       <c r="J40" t="n">
-        <v>61.40386490944152</v>
+        <v>61.40386490944154</v>
       </c>
       <c r="K40" t="n">
         <v>100.9054125681706</v>
@@ -34064,7 +34064,7 @@
         <v>136.143351245146</v>
       </c>
       <c r="N40" t="n">
-        <v>132.9061666478886</v>
+        <v>132.9061666478887</v>
       </c>
       <c r="O40" t="n">
         <v>122.7603563857525</v>
@@ -34073,19 +34073,19 @@
         <v>105.0426923949093</v>
       </c>
       <c r="Q40" t="n">
-        <v>72.72611542765411</v>
+        <v>72.72611542765412</v>
       </c>
       <c r="R40" t="n">
-        <v>39.05150004398839</v>
+        <v>39.0515000439884</v>
       </c>
       <c r="S40" t="n">
-        <v>15.13581188522558</v>
+        <v>15.13581188522559</v>
       </c>
       <c r="T40" t="n">
-        <v>3.710918928563393</v>
+        <v>3.710918928563394</v>
       </c>
       <c r="U40" t="n">
-        <v>0.04737343313059657</v>
+        <v>0.04737343313059659</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,25 +34122,25 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.936200617062905</v>
+        <v>1.936200617062906</v>
       </c>
       <c r="H41" t="n">
-        <v>19.82911456949548</v>
+        <v>19.82911456949549</v>
       </c>
       <c r="I41" t="n">
-        <v>74.64537428931773</v>
+        <v>74.64537428931776</v>
       </c>
       <c r="J41" t="n">
-        <v>164.3326071224429</v>
+        <v>164.332607122443</v>
       </c>
       <c r="K41" t="n">
         <v>246.2919792427158</v>
       </c>
       <c r="L41" t="n">
-        <v>305.5469788771547</v>
+        <v>305.5469788771548</v>
       </c>
       <c r="M41" t="n">
-        <v>339.9798866008471</v>
+        <v>339.9798866008472</v>
       </c>
       <c r="N41" t="n">
         <v>345.4811166040772</v>
@@ -34149,19 +34149,19 @@
         <v>326.2280217181579</v>
       </c>
       <c r="P41" t="n">
-        <v>278.4280689844173</v>
+        <v>278.4280689844174</v>
       </c>
       <c r="Q41" t="n">
         <v>209.087884385852</v>
       </c>
       <c r="R41" t="n">
-        <v>121.6248620115778</v>
+        <v>121.6248620115779</v>
       </c>
       <c r="S41" t="n">
-        <v>44.121171561321</v>
+        <v>44.12117156132101</v>
       </c>
       <c r="T41" t="n">
-        <v>8.475718201192873</v>
+        <v>8.475718201192874</v>
       </c>
       <c r="U41" t="n">
         <v>0.1548960493650324</v>
@@ -34204,46 +34204,46 @@
         <v>1.035958660346441</v>
       </c>
       <c r="H42" t="n">
-        <v>10.00517969334589</v>
+        <v>10.0051796933459</v>
       </c>
       <c r="I42" t="n">
-        <v>35.66787492859458</v>
+        <v>35.66787492859459</v>
       </c>
       <c r="J42" t="n">
-        <v>97.87537501106445</v>
+        <v>44.13743925759428</v>
       </c>
       <c r="K42" t="n">
         <v>167.284605254276</v>
       </c>
       <c r="L42" t="n">
-        <v>171.1968602134187</v>
+        <v>224.9347959668885</v>
       </c>
       <c r="M42" t="n">
-        <v>262.4882974044469</v>
+        <v>262.488297404447</v>
       </c>
       <c r="N42" t="n">
-        <v>269.4355815784369</v>
+        <v>269.435581578437</v>
       </c>
       <c r="O42" t="n">
-        <v>246.4809186307605</v>
+        <v>246.4809186307606</v>
       </c>
       <c r="P42" t="n">
-        <v>197.8226673428217</v>
+        <v>197.8226673428218</v>
       </c>
       <c r="Q42" t="n">
         <v>132.2392142575563</v>
       </c>
       <c r="R42" t="n">
-        <v>64.32031050817643</v>
+        <v>64.32031050817645</v>
       </c>
       <c r="S42" t="n">
         <v>19.24247774810165</v>
       </c>
       <c r="T42" t="n">
-        <v>4.175640389729733</v>
+        <v>4.175640389729734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.06815517502279221</v>
+        <v>0.06815517502279222</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,16 +34280,16 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.868512940727603</v>
+        <v>0.8685129407276032</v>
       </c>
       <c r="H43" t="n">
-        <v>7.721869600287239</v>
+        <v>7.721869600287242</v>
       </c>
       <c r="I43" t="n">
-        <v>26.11855279933556</v>
+        <v>26.11855279933557</v>
       </c>
       <c r="J43" t="n">
-        <v>61.40386490944153</v>
+        <v>61.40386490944154</v>
       </c>
       <c r="K43" t="n">
         <v>100.9054125681706</v>
@@ -34307,10 +34307,10 @@
         <v>122.7603563857525</v>
       </c>
       <c r="P43" t="n">
-        <v>105.0426923949093</v>
+        <v>105.0426923949094</v>
       </c>
       <c r="Q43" t="n">
-        <v>72.72611542765411</v>
+        <v>72.72611542765412</v>
       </c>
       <c r="R43" t="n">
         <v>39.0515000439884</v>
@@ -34319,10 +34319,10 @@
         <v>15.13581188522559</v>
       </c>
       <c r="T43" t="n">
-        <v>3.710918928563394</v>
+        <v>3.710918928563395</v>
       </c>
       <c r="U43" t="n">
-        <v>0.04737343313059658</v>
+        <v>0.0473734331305966</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,25 +34359,25 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.936200617062905</v>
+        <v>1.936200617062906</v>
       </c>
       <c r="H44" t="n">
-        <v>19.82911456949548</v>
+        <v>19.82911456949549</v>
       </c>
       <c r="I44" t="n">
-        <v>74.64537428931773</v>
+        <v>74.64537428931776</v>
       </c>
       <c r="J44" t="n">
-        <v>164.3326071224429</v>
+        <v>164.332607122443</v>
       </c>
       <c r="K44" t="n">
         <v>246.2919792427158</v>
       </c>
       <c r="L44" t="n">
-        <v>305.5469788771547</v>
+        <v>305.5469788771548</v>
       </c>
       <c r="M44" t="n">
-        <v>339.9798866008471</v>
+        <v>339.9798866008472</v>
       </c>
       <c r="N44" t="n">
         <v>345.4811166040772</v>
@@ -34386,19 +34386,19 @@
         <v>326.2280217181579</v>
       </c>
       <c r="P44" t="n">
-        <v>278.4280689844173</v>
+        <v>278.4280689844174</v>
       </c>
       <c r="Q44" t="n">
         <v>209.087884385852</v>
       </c>
       <c r="R44" t="n">
-        <v>121.6248620115778</v>
+        <v>121.6248620115779</v>
       </c>
       <c r="S44" t="n">
-        <v>44.121171561321</v>
+        <v>44.12117156132101</v>
       </c>
       <c r="T44" t="n">
-        <v>8.475718201192873</v>
+        <v>8.475718201192874</v>
       </c>
       <c r="U44" t="n">
         <v>0.1548960493650324</v>
@@ -34441,13 +34441,13 @@
         <v>1.035958660346441</v>
       </c>
       <c r="H45" t="n">
-        <v>10.00517969334589</v>
+        <v>10.0051796933459</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>35.66787492859459</v>
       </c>
       <c r="J45" t="n">
-        <v>79.80531418618924</v>
+        <v>97.87537501106446</v>
       </c>
       <c r="K45" t="n">
         <v>167.284605254276</v>
@@ -34456,31 +34456,31 @@
         <v>224.9347959668885</v>
       </c>
       <c r="M45" t="n">
-        <v>262.4882974044469</v>
+        <v>262.488297404447</v>
       </c>
       <c r="N45" t="n">
-        <v>269.4355815784369</v>
+        <v>269.435581578437</v>
       </c>
       <c r="O45" t="n">
-        <v>246.4809186307605</v>
+        <v>246.4809186307606</v>
       </c>
       <c r="P45" t="n">
-        <v>197.8226673428217</v>
+        <v>197.8226673428218</v>
       </c>
       <c r="Q45" t="n">
         <v>132.2392142575563</v>
       </c>
       <c r="R45" t="n">
-        <v>64.32031050817643</v>
+        <v>10.58237475470628</v>
       </c>
       <c r="S45" t="n">
         <v>19.24247774810165</v>
       </c>
       <c r="T45" t="n">
-        <v>4.175640389729733</v>
+        <v>4.175640389729734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.06815517502279221</v>
+        <v>0.06815517502279222</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,16 +34517,16 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.868512940727603</v>
+        <v>0.8685129407276032</v>
       </c>
       <c r="H46" t="n">
-        <v>7.721869600287239</v>
+        <v>7.721869600287242</v>
       </c>
       <c r="I46" t="n">
-        <v>26.11855279933556</v>
+        <v>26.11855279933557</v>
       </c>
       <c r="J46" t="n">
-        <v>61.40386490944153</v>
+        <v>61.40386490944154</v>
       </c>
       <c r="K46" t="n">
         <v>100.9054125681706</v>
@@ -34544,10 +34544,10 @@
         <v>122.7603563857525</v>
       </c>
       <c r="P46" t="n">
-        <v>105.0426923949093</v>
+        <v>105.0426923949094</v>
       </c>
       <c r="Q46" t="n">
-        <v>72.72611542765411</v>
+        <v>72.72611542765412</v>
       </c>
       <c r="R46" t="n">
         <v>39.0515000439884</v>
@@ -34556,10 +34556,10 @@
         <v>15.13581188522559</v>
       </c>
       <c r="T46" t="n">
-        <v>3.710918928563394</v>
+        <v>3.710918928563395</v>
       </c>
       <c r="U46" t="n">
-        <v>0.04737343313059658</v>
+        <v>0.0473734331305966</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35406,10 +35406,10 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>74.23275281018634</v>
+        <v>74.23275281018635</v>
       </c>
       <c r="J11" t="n">
-        <v>164.3326071224429</v>
+        <v>164.3326071224433</v>
       </c>
       <c r="K11" t="n">
         <v>246.2919792427158</v>
@@ -35418,7 +35418,7 @@
         <v>305.5469788771547</v>
       </c>
       <c r="M11" t="n">
-        <v>339.9798866008471</v>
+        <v>339.9798866008473</v>
       </c>
       <c r="N11" t="n">
         <v>345.4811166040772</v>
@@ -35427,7 +35427,7 @@
         <v>326.2280217181581</v>
       </c>
       <c r="P11" t="n">
-        <v>278.4280689844175</v>
+        <v>278.4280689844172</v>
       </c>
       <c r="Q11" t="n">
         <v>209.0878843858518</v>
@@ -35485,16 +35485,16 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>35.66787492859458</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>97.87537501106448</v>
+        <v>79.80531418618888</v>
       </c>
       <c r="K12" t="n">
         <v>167.284605254276</v>
       </c>
       <c r="L12" t="n">
-        <v>171.1968602134186</v>
+        <v>224.9347959668885</v>
       </c>
       <c r="M12" t="n">
         <v>262.4882974044469</v>
@@ -35506,7 +35506,7 @@
         <v>246.4809186307605</v>
       </c>
       <c r="P12" t="n">
-        <v>197.8226673428217</v>
+        <v>197.8226673428219</v>
       </c>
       <c r="Q12" t="n">
         <v>132.2392142575563</v>
@@ -35573,25 +35573,25 @@
         <v>378.4392050642671</v>
       </c>
       <c r="L13" t="n">
-        <v>238.5851791829755</v>
+        <v>551.5584115776708</v>
       </c>
       <c r="M13" t="n">
-        <v>600.2684696097047</v>
+        <v>136.1433512451461</v>
       </c>
       <c r="N13" t="n">
         <v>132.9061666478888</v>
       </c>
       <c r="O13" t="n">
-        <v>546.6686889370469</v>
+        <v>346.8035102904039</v>
       </c>
       <c r="P13" t="n">
-        <v>105.0426923949094</v>
+        <v>456.0597570114162</v>
       </c>
       <c r="Q13" t="n">
         <v>242.6178072098078</v>
       </c>
       <c r="R13" t="n">
-        <v>17.84785696230656</v>
+        <v>17.84785696230657</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -35643,31 +35643,31 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>74.23275281018633</v>
+        <v>74.23275281018635</v>
       </c>
       <c r="J14" t="n">
-        <v>164.3326071224429</v>
+        <v>164.332607122443</v>
       </c>
       <c r="K14" t="n">
-        <v>246.2919792427158</v>
+        <v>246.2919792427159</v>
       </c>
       <c r="L14" t="n">
         <v>305.5469788771547</v>
       </c>
       <c r="M14" t="n">
-        <v>339.9798866008471</v>
+        <v>339.9798866008473</v>
       </c>
       <c r="N14" t="n">
         <v>345.4811166040772</v>
       </c>
       <c r="O14" t="n">
-        <v>326.2280217181578</v>
+        <v>326.2280217181581</v>
       </c>
       <c r="P14" t="n">
         <v>278.4280689844175</v>
       </c>
       <c r="Q14" t="n">
-        <v>209.0878843858518</v>
+        <v>209.0878843858522</v>
       </c>
       <c r="R14" t="n">
         <v>121.6248620115775</v>
@@ -35722,34 +35722,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>35.66787492859458</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>97.87537501106445</v>
+        <v>97.87537501106446</v>
       </c>
       <c r="K15" t="n">
-        <v>167.284605254276</v>
+        <v>167.2846052542761</v>
       </c>
       <c r="L15" t="n">
-        <v>224.9347959668885</v>
+        <v>224.9347959668886</v>
       </c>
       <c r="M15" t="n">
-        <v>262.4882974044469</v>
+        <v>262.4882974044471</v>
       </c>
       <c r="N15" t="n">
         <v>269.435581578437</v>
       </c>
       <c r="O15" t="n">
-        <v>246.4809186307605</v>
+        <v>246.4809186307607</v>
       </c>
       <c r="P15" t="n">
-        <v>197.8226673428217</v>
+        <v>197.8226673428219</v>
       </c>
       <c r="Q15" t="n">
         <v>132.2392142575563</v>
       </c>
       <c r="R15" t="n">
-        <v>10.58237475470651</v>
+        <v>46.25024968330035</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35807,19 +35807,19 @@
         <v>148.8580923485222</v>
       </c>
       <c r="K16" t="n">
-        <v>378.4392050642672</v>
+        <v>378.4392050642671</v>
       </c>
       <c r="L16" t="n">
         <v>551.5584115776708</v>
       </c>
       <c r="M16" t="n">
-        <v>360.1865051497969</v>
+        <v>136.1433512451461</v>
       </c>
       <c r="N16" t="n">
         <v>132.9061666478888</v>
       </c>
       <c r="O16" t="n">
-        <v>122.7603563857526</v>
+        <v>346.8035102904039</v>
       </c>
       <c r="P16" t="n">
         <v>456.0597570114162</v>
@@ -35828,7 +35828,7 @@
         <v>242.6178072098078</v>
       </c>
       <c r="R16" t="n">
-        <v>17.84785696230656</v>
+        <v>17.84785696230658</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -35880,31 +35880,31 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>74.23275281018633</v>
+        <v>74.23275281018635</v>
       </c>
       <c r="J17" t="n">
-        <v>164.3326071224429</v>
+        <v>164.332607122443</v>
       </c>
       <c r="K17" t="n">
-        <v>246.2919792427158</v>
+        <v>246.2919792427159</v>
       </c>
       <c r="L17" t="n">
-        <v>305.5469788771547</v>
+        <v>305.546978877155</v>
       </c>
       <c r="M17" t="n">
-        <v>339.9798866008475</v>
+        <v>339.9798866008473</v>
       </c>
       <c r="N17" t="n">
         <v>345.4811166040772</v>
       </c>
       <c r="O17" t="n">
-        <v>326.2280217181576</v>
+        <v>326.2280217181581</v>
       </c>
       <c r="P17" t="n">
         <v>278.4280689844175</v>
       </c>
       <c r="Q17" t="n">
-        <v>209.0878843858518</v>
+        <v>209.0878843858522</v>
       </c>
       <c r="R17" t="n">
         <v>121.6248620115775</v>
@@ -35959,28 +35959,28 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>35.66787492859458</v>
+        <v>35.6678749285946</v>
       </c>
       <c r="J18" t="n">
-        <v>97.87537501106442</v>
+        <v>97.87537501106448</v>
       </c>
       <c r="K18" t="n">
-        <v>167.284605254276</v>
+        <v>167.2846052542761</v>
       </c>
       <c r="L18" t="n">
-        <v>224.9347959668885</v>
+        <v>171.1968602134183</v>
       </c>
       <c r="M18" t="n">
-        <v>208.7503616509773</v>
+        <v>262.4882974044469</v>
       </c>
       <c r="N18" t="n">
-        <v>269.4355815784369</v>
+        <v>269.435581578437</v>
       </c>
       <c r="O18" t="n">
         <v>246.4809186307605</v>
       </c>
       <c r="P18" t="n">
-        <v>197.8226673428217</v>
+        <v>197.8226673428219</v>
       </c>
       <c r="Q18" t="n">
         <v>132.2392142575563</v>
@@ -36041,31 +36041,31 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>148.8580923485222</v>
+        <v>61.40386490944155</v>
       </c>
       <c r="K19" t="n">
-        <v>378.4392050642672</v>
+        <v>100.9054125681706</v>
       </c>
       <c r="L19" t="n">
         <v>551.5584115776708</v>
       </c>
       <c r="M19" t="n">
-        <v>600.2684696097047</v>
+        <v>375.4488851367398</v>
       </c>
       <c r="N19" t="n">
-        <v>243.841266804488</v>
+        <v>579.6322304434893</v>
       </c>
       <c r="O19" t="n">
-        <v>122.7603563857524</v>
+        <v>546.6686889370469</v>
       </c>
       <c r="P19" t="n">
         <v>105.0426923949094</v>
       </c>
       <c r="Q19" t="n">
-        <v>242.6178072098078</v>
+        <v>72.72611542765435</v>
       </c>
       <c r="R19" t="n">
-        <v>17.84785696230655</v>
+        <v>17.84785696230658</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -36117,13 +36117,13 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>74.23275281018633</v>
+        <v>74.23275281018635</v>
       </c>
       <c r="J20" t="n">
-        <v>164.3326071224429</v>
+        <v>164.3326071224433</v>
       </c>
       <c r="K20" t="n">
-        <v>246.2919792427157</v>
+        <v>246.2919792427158</v>
       </c>
       <c r="L20" t="n">
         <v>305.5469788771547</v>
@@ -36132,10 +36132,10 @@
         <v>339.9798866008471</v>
       </c>
       <c r="N20" t="n">
-        <v>345.481116604077</v>
+        <v>345.4811166040772</v>
       </c>
       <c r="O20" t="n">
-        <v>326.2280217181578</v>
+        <v>326.2280217181581</v>
       </c>
       <c r="P20" t="n">
         <v>278.4280689844175</v>
@@ -36144,7 +36144,7 @@
         <v>209.0878843858518</v>
       </c>
       <c r="R20" t="n">
-        <v>121.6248620115775</v>
+        <v>121.624862011578</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,34 +36196,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>35.66787492859458</v>
+        <v>35.6678749285946</v>
       </c>
       <c r="J21" t="n">
-        <v>97.87537501106442</v>
+        <v>97.87537501106445</v>
       </c>
       <c r="K21" t="n">
         <v>167.284605254276</v>
       </c>
       <c r="L21" t="n">
-        <v>224.9347959668885</v>
+        <v>171.1968602134184</v>
       </c>
       <c r="M21" t="n">
-        <v>262.4882974044468</v>
+        <v>262.4882974044469</v>
       </c>
       <c r="N21" t="n">
-        <v>269.4355815784368</v>
+        <v>269.435581578437</v>
       </c>
       <c r="O21" t="n">
         <v>246.4809186307605</v>
       </c>
       <c r="P21" t="n">
-        <v>197.8226673428217</v>
+        <v>197.8226673428219</v>
       </c>
       <c r="Q21" t="n">
         <v>132.2392142575563</v>
       </c>
       <c r="R21" t="n">
-        <v>10.58237475470696</v>
+        <v>64.32031050817636</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,31 +36278,31 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>148.8580923485222</v>
+        <v>61.40386490944154</v>
       </c>
       <c r="K22" t="n">
-        <v>378.4392050642672</v>
+        <v>100.9054125681706</v>
       </c>
       <c r="L22" t="n">
         <v>551.5584115776708</v>
       </c>
       <c r="M22" t="n">
-        <v>360.1865051497973</v>
+        <v>600.2684696097047</v>
       </c>
       <c r="N22" t="n">
-        <v>132.9061666478885</v>
+        <v>579.6322304434893</v>
       </c>
       <c r="O22" t="n">
-        <v>122.7603563857524</v>
+        <v>321.8491044640821</v>
       </c>
       <c r="P22" t="n">
-        <v>456.0597570114162</v>
+        <v>105.0426923949094</v>
       </c>
       <c r="Q22" t="n">
-        <v>242.6178072098078</v>
+        <v>72.72611542765435</v>
       </c>
       <c r="R22" t="n">
-        <v>17.84785696230655</v>
+        <v>17.84785696230657</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -36354,25 +36354,25 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>74.23275281018633</v>
+        <v>74.23275281018634</v>
       </c>
       <c r="J23" t="n">
         <v>164.3326071224429</v>
       </c>
       <c r="K23" t="n">
-        <v>246.2919792427158</v>
+        <v>246.2919792427159</v>
       </c>
       <c r="L23" t="n">
         <v>305.5469788771547</v>
       </c>
       <c r="M23" t="n">
-        <v>339.9798866008475</v>
+        <v>339.9798866008471</v>
       </c>
       <c r="N23" t="n">
         <v>345.4811166040772</v>
       </c>
       <c r="O23" t="n">
-        <v>326.2280217181576</v>
+        <v>326.2280217181572</v>
       </c>
       <c r="P23" t="n">
         <v>278.4280689844175</v>
@@ -36381,7 +36381,7 @@
         <v>209.0878843858518</v>
       </c>
       <c r="R23" t="n">
-        <v>121.6248620115775</v>
+        <v>121.624862011578</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,10 +36433,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>35.66787492859459</v>
       </c>
       <c r="J24" t="n">
-        <v>79.80531418618946</v>
+        <v>97.87537501106448</v>
       </c>
       <c r="K24" t="n">
         <v>167.284605254276</v>
@@ -36445,19 +36445,19 @@
         <v>224.9347959668885</v>
       </c>
       <c r="M24" t="n">
-        <v>262.4882974044468</v>
+        <v>262.4882974044469</v>
       </c>
       <c r="N24" t="n">
-        <v>269.4355815784369</v>
+        <v>269.435581578437</v>
       </c>
       <c r="O24" t="n">
         <v>246.4809186307605</v>
       </c>
       <c r="P24" t="n">
-        <v>197.8226673428217</v>
+        <v>197.8226673428219</v>
       </c>
       <c r="Q24" t="n">
-        <v>132.2392142575563</v>
+        <v>78.50127850408626</v>
       </c>
       <c r="R24" t="n">
         <v>64.32031050817636</v>
@@ -36515,31 +36515,31 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>148.8580923485222</v>
+        <v>61.40386490944154</v>
       </c>
       <c r="K25" t="n">
         <v>378.4392050642672</v>
       </c>
       <c r="L25" t="n">
-        <v>215.7674479386694</v>
+        <v>551.5584115776708</v>
       </c>
       <c r="M25" t="n">
-        <v>600.2684696097047</v>
+        <v>136.1433512451461</v>
       </c>
       <c r="N25" t="n">
-        <v>579.6322304434893</v>
+        <v>132.9061666478888</v>
       </c>
       <c r="O25" t="n">
-        <v>122.7603563857524</v>
+        <v>546.6686889370469</v>
       </c>
       <c r="P25" t="n">
-        <v>105.0426923949094</v>
+        <v>456.0597570114162</v>
       </c>
       <c r="Q25" t="n">
-        <v>242.6178072098078</v>
+        <v>130.2068560022444</v>
       </c>
       <c r="R25" t="n">
-        <v>17.84785696230655</v>
+        <v>17.84785696230656</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -36591,13 +36591,13 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>74.23275281018633</v>
+        <v>74.23275281018634</v>
       </c>
       <c r="J26" t="n">
-        <v>164.3326071224433</v>
+        <v>164.3326071224431</v>
       </c>
       <c r="K26" t="n">
-        <v>246.291979242716</v>
+        <v>246.2919792427158</v>
       </c>
       <c r="L26" t="n">
         <v>305.5469788771547</v>
@@ -36618,7 +36618,7 @@
         <v>209.0878843858518</v>
       </c>
       <c r="R26" t="n">
-        <v>121.6248620115775</v>
+        <v>121.624862011578</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,10 +36670,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>35.66787492859458</v>
+        <v>35.66787492859459</v>
       </c>
       <c r="J27" t="n">
-        <v>97.87537501106445</v>
+        <v>97.87537501106448</v>
       </c>
       <c r="K27" t="n">
         <v>167.284605254276</v>
@@ -36688,7 +36688,7 @@
         <v>269.435581578437</v>
       </c>
       <c r="O27" t="n">
-        <v>246.4809186307605</v>
+        <v>192.7429828772906</v>
       </c>
       <c r="P27" t="n">
         <v>197.8226673428217</v>
@@ -36697,7 +36697,7 @@
         <v>132.2392142575563</v>
       </c>
       <c r="R27" t="n">
-        <v>10.58237475470651</v>
+        <v>64.32031050817636</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36755,19 +36755,19 @@
         <v>148.8580923485222</v>
       </c>
       <c r="K28" t="n">
-        <v>378.4392050642672</v>
+        <v>378.4392050642671</v>
       </c>
       <c r="L28" t="n">
-        <v>129.1241875696293</v>
+        <v>551.5584115776708</v>
       </c>
       <c r="M28" t="n">
-        <v>600.2684696097048</v>
+        <v>136.1433512451461</v>
       </c>
       <c r="N28" t="n">
         <v>132.9061666478888</v>
       </c>
       <c r="O28" t="n">
-        <v>305.1126159338862</v>
+        <v>346.803510290403</v>
       </c>
       <c r="P28" t="n">
         <v>456.0597570114162</v>
@@ -36828,13 +36828,13 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>74.23275281018633</v>
+        <v>74.23275281018634</v>
       </c>
       <c r="J29" t="n">
         <v>164.3326071224429</v>
       </c>
       <c r="K29" t="n">
-        <v>246.2919792427157</v>
+        <v>246.2919792427159</v>
       </c>
       <c r="L29" t="n">
         <v>305.5469788771547</v>
@@ -36843,19 +36843,19 @@
         <v>339.9798866008471</v>
       </c>
       <c r="N29" t="n">
-        <v>345.481116604077</v>
+        <v>345.4811166040772</v>
       </c>
       <c r="O29" t="n">
-        <v>326.2280217181578</v>
+        <v>326.2280217181581</v>
       </c>
       <c r="P29" t="n">
         <v>278.4280689844175</v>
       </c>
       <c r="Q29" t="n">
-        <v>209.0878843858518</v>
+        <v>209.0878843858509</v>
       </c>
       <c r="R29" t="n">
-        <v>121.6248620115775</v>
+        <v>121.624862011578</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,10 +36907,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>35.66787492859458</v>
+        <v>35.66787492859459</v>
       </c>
       <c r="J30" t="n">
-        <v>97.87537501106442</v>
+        <v>44.13743925759462</v>
       </c>
       <c r="K30" t="n">
         <v>167.284605254276</v>
@@ -36919,10 +36919,10 @@
         <v>224.9347959668885</v>
       </c>
       <c r="M30" t="n">
-        <v>262.4882974044468</v>
+        <v>262.4882974044469</v>
       </c>
       <c r="N30" t="n">
-        <v>269.4355815784368</v>
+        <v>269.435581578437</v>
       </c>
       <c r="O30" t="n">
         <v>246.4809186307605</v>
@@ -36934,7 +36934,7 @@
         <v>132.2392142575563</v>
       </c>
       <c r="R30" t="n">
-        <v>10.58237475470696</v>
+        <v>64.32031050817636</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,31 +36989,31 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>61.40386490944152</v>
+        <v>148.8580923485222</v>
       </c>
       <c r="K31" t="n">
         <v>100.9054125681706</v>
       </c>
       <c r="L31" t="n">
-        <v>551.5584115776708</v>
+        <v>129.1241875696293</v>
       </c>
       <c r="M31" t="n">
-        <v>136.1433512451459</v>
+        <v>600.2684696097045</v>
       </c>
       <c r="N31" t="n">
-        <v>298.0290079364227</v>
+        <v>579.6322304434893</v>
       </c>
       <c r="O31" t="n">
-        <v>546.6686889370469</v>
+        <v>546.6686889370471</v>
       </c>
       <c r="P31" t="n">
-        <v>456.0597570114162</v>
+        <v>215.2031044909045</v>
       </c>
       <c r="Q31" t="n">
-        <v>242.6178072098078</v>
+        <v>72.72611542765435</v>
       </c>
       <c r="R31" t="n">
-        <v>17.84785696230655</v>
+        <v>17.84785696230656</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -37065,22 +37065,22 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>74.23275281018633</v>
+        <v>74.23275281018634</v>
       </c>
       <c r="J32" t="n">
-        <v>164.3326071224428</v>
+        <v>164.3326071224429</v>
       </c>
       <c r="K32" t="n">
-        <v>246.2919792427156</v>
+        <v>246.2919792427159</v>
       </c>
       <c r="L32" t="n">
-        <v>305.5469788771546</v>
+        <v>305.5469788771547</v>
       </c>
       <c r="M32" t="n">
-        <v>339.9798866008472</v>
+        <v>339.9798866008471</v>
       </c>
       <c r="N32" t="n">
-        <v>345.481116604077</v>
+        <v>345.4811166040772</v>
       </c>
       <c r="O32" t="n">
         <v>326.2280217181581</v>
@@ -37092,7 +37092,7 @@
         <v>209.0878843858518</v>
       </c>
       <c r="R32" t="n">
-        <v>121.624862011578</v>
+        <v>121.6248620115771</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,19 +37147,19 @@
         <v>35.66787492859459</v>
       </c>
       <c r="J33" t="n">
-        <v>97.87537501106442</v>
+        <v>44.13743925759462</v>
       </c>
       <c r="K33" t="n">
-        <v>113.5466695008064</v>
+        <v>167.284605254276</v>
       </c>
       <c r="L33" t="n">
         <v>224.9347959668885</v>
       </c>
       <c r="M33" t="n">
-        <v>262.4882974044468</v>
+        <v>262.4882974044469</v>
       </c>
       <c r="N33" t="n">
-        <v>269.4355815784369</v>
+        <v>269.435581578437</v>
       </c>
       <c r="O33" t="n">
         <v>246.4809186307605</v>
@@ -37226,31 +37226,31 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>148.8580923485222</v>
+        <v>61.40386490944154</v>
       </c>
       <c r="K34" t="n">
-        <v>100.9054125681706</v>
+        <v>378.4392050642672</v>
       </c>
       <c r="L34" t="n">
-        <v>129.1241875696293</v>
+        <v>551.5584115776708</v>
       </c>
       <c r="M34" t="n">
-        <v>600.2684696097045</v>
+        <v>136.1433512451461</v>
       </c>
       <c r="N34" t="n">
-        <v>579.6322304434893</v>
+        <v>132.9061666478888</v>
       </c>
       <c r="O34" t="n">
-        <v>546.6686889370471</v>
+        <v>546.6686889370469</v>
       </c>
       <c r="P34" t="n">
-        <v>105.0426923949094</v>
+        <v>456.0597570114162</v>
       </c>
       <c r="Q34" t="n">
-        <v>182.8865275236494</v>
+        <v>130.2068560022444</v>
       </c>
       <c r="R34" t="n">
-        <v>17.84785696230655</v>
+        <v>17.84785696230656</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -37302,7 +37302,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>74.23275281018633</v>
+        <v>74.23275281018634</v>
       </c>
       <c r="J35" t="n">
         <v>164.3326071224428</v>
@@ -37311,16 +37311,16 @@
         <v>246.2919792427156</v>
       </c>
       <c r="L35" t="n">
-        <v>305.5469788771546</v>
+        <v>305.5469788771547</v>
       </c>
       <c r="M35" t="n">
-        <v>339.9798866008472</v>
+        <v>339.9798866008473</v>
       </c>
       <c r="N35" t="n">
-        <v>345.481116604077</v>
+        <v>345.4811166040774</v>
       </c>
       <c r="O35" t="n">
-        <v>326.2280217181581</v>
+        <v>326.2280217181578</v>
       </c>
       <c r="P35" t="n">
         <v>278.4280689844175</v>
@@ -37384,31 +37384,31 @@
         <v>35.66787492859459</v>
       </c>
       <c r="J36" t="n">
-        <v>97.87537501106442</v>
+        <v>97.87537501106448</v>
       </c>
       <c r="K36" t="n">
-        <v>113.5466695008064</v>
+        <v>167.284605254276</v>
       </c>
       <c r="L36" t="n">
         <v>224.9347959668885</v>
       </c>
       <c r="M36" t="n">
-        <v>262.4882974044468</v>
+        <v>262.4882974044469</v>
       </c>
       <c r="N36" t="n">
-        <v>269.4355815784369</v>
+        <v>269.435581578437</v>
       </c>
       <c r="O36" t="n">
         <v>246.4809186307605</v>
       </c>
       <c r="P36" t="n">
-        <v>197.8226673428217</v>
+        <v>197.8226673428219</v>
       </c>
       <c r="Q36" t="n">
         <v>132.2392142575563</v>
       </c>
       <c r="R36" t="n">
-        <v>64.32031050817636</v>
+        <v>10.58237475470628</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,31 +37463,31 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>148.8580923485222</v>
+        <v>61.40386490944154</v>
       </c>
       <c r="K37" t="n">
         <v>378.4392050642672</v>
       </c>
       <c r="L37" t="n">
-        <v>129.1241875696293</v>
+        <v>551.5584115776708</v>
       </c>
       <c r="M37" t="n">
-        <v>600.2684696097048</v>
+        <v>136.1433512451461</v>
       </c>
       <c r="N37" t="n">
-        <v>132.9061666478885</v>
+        <v>132.9061666478888</v>
       </c>
       <c r="O37" t="n">
-        <v>305.112615933886</v>
+        <v>546.6686889370469</v>
       </c>
       <c r="P37" t="n">
         <v>456.0597570114162</v>
       </c>
       <c r="Q37" t="n">
-        <v>242.6178072098078</v>
+        <v>130.2068560022444</v>
       </c>
       <c r="R37" t="n">
-        <v>17.84785696230655</v>
+        <v>17.84785696230656</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -37539,10 +37539,10 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>74.23275281018633</v>
+        <v>74.23275281018634</v>
       </c>
       <c r="J38" t="n">
-        <v>164.3326071224428</v>
+        <v>164.3326071224429</v>
       </c>
       <c r="K38" t="n">
         <v>246.2919792427158</v>
@@ -37551,16 +37551,16 @@
         <v>305.5469788771547</v>
       </c>
       <c r="M38" t="n">
-        <v>339.9798866008471</v>
+        <v>339.9798866008472</v>
       </c>
       <c r="N38" t="n">
-        <v>345.481116604077</v>
+        <v>345.4811166040772</v>
       </c>
       <c r="O38" t="n">
-        <v>326.2280217181576</v>
+        <v>326.2280217181578</v>
       </c>
       <c r="P38" t="n">
-        <v>278.4280689844172</v>
+        <v>278.4280689844175</v>
       </c>
       <c r="Q38" t="n">
         <v>209.0878843858518</v>
@@ -37618,10 +37618,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>35.66787492859459</v>
       </c>
       <c r="J39" t="n">
-        <v>79.80531418618946</v>
+        <v>97.87537501106446</v>
       </c>
       <c r="K39" t="n">
         <v>167.284605254276</v>
@@ -37630,16 +37630,16 @@
         <v>224.9347959668885</v>
       </c>
       <c r="M39" t="n">
-        <v>262.4882974044468</v>
+        <v>262.4882974044469</v>
       </c>
       <c r="N39" t="n">
-        <v>269.4355815784369</v>
+        <v>269.435581578437</v>
       </c>
       <c r="O39" t="n">
         <v>246.4809186307605</v>
       </c>
       <c r="P39" t="n">
-        <v>197.8226673428217</v>
+        <v>144.0847315893518</v>
       </c>
       <c r="Q39" t="n">
         <v>132.2392142575563</v>
@@ -37700,31 +37700,31 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>148.8580923485222</v>
+        <v>61.40386490944154</v>
       </c>
       <c r="K40" t="n">
-        <v>378.4392050642672</v>
+        <v>100.9054125681706</v>
       </c>
       <c r="L40" t="n">
-        <v>551.5584115776708</v>
+        <v>326.738827104706</v>
       </c>
       <c r="M40" t="n">
-        <v>136.1433512451461</v>
+        <v>600.2684696097047</v>
       </c>
       <c r="N40" t="n">
-        <v>132.9061666478885</v>
+        <v>579.6322304434893</v>
       </c>
       <c r="O40" t="n">
-        <v>346.8035102904028</v>
+        <v>546.6686889370469</v>
       </c>
       <c r="P40" t="n">
-        <v>456.0597570114162</v>
+        <v>105.0426923949094</v>
       </c>
       <c r="Q40" t="n">
-        <v>242.6178072098078</v>
+        <v>72.72611542765435</v>
       </c>
       <c r="R40" t="n">
-        <v>17.84785696230655</v>
+        <v>17.84785696230656</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>74.23275281018633</v>
+        <v>74.23275281018635</v>
       </c>
       <c r="J41" t="n">
-        <v>164.3326071224429</v>
+        <v>164.332607122443</v>
       </c>
       <c r="K41" t="n">
-        <v>246.2919792427158</v>
+        <v>246.2919792427156</v>
       </c>
       <c r="L41" t="n">
-        <v>305.5469788771546</v>
+        <v>305.5469788771547</v>
       </c>
       <c r="M41" t="n">
-        <v>339.9798866008468</v>
+        <v>339.9798866008473</v>
       </c>
       <c r="N41" t="n">
         <v>345.4811166040772</v>
       </c>
       <c r="O41" t="n">
-        <v>326.2280217181578</v>
+        <v>326.2280217181581</v>
       </c>
       <c r="P41" t="n">
-        <v>278.4280689844172</v>
+        <v>278.4280689844175</v>
       </c>
       <c r="Q41" t="n">
         <v>209.0878843858518</v>
       </c>
       <c r="R41" t="n">
-        <v>121.6248620115784</v>
+        <v>121.624862011578</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,16 +37855,16 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>35.66787492859458</v>
+        <v>35.6678749285946</v>
       </c>
       <c r="J42" t="n">
-        <v>97.87537501106445</v>
+        <v>44.13743925759428</v>
       </c>
       <c r="K42" t="n">
         <v>167.284605254276</v>
       </c>
       <c r="L42" t="n">
-        <v>171.1968602134187</v>
+        <v>224.9347959668885</v>
       </c>
       <c r="M42" t="n">
         <v>262.4882974044469</v>
@@ -37876,7 +37876,7 @@
         <v>246.4809186307605</v>
       </c>
       <c r="P42" t="n">
-        <v>197.8226673428217</v>
+        <v>197.8226673428219</v>
       </c>
       <c r="Q42" t="n">
         <v>132.2392142575563</v>
@@ -37937,7 +37937,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>148.8580923485222</v>
+        <v>61.40386490944154</v>
       </c>
       <c r="K43" t="n">
         <v>378.4392050642672</v>
@@ -37946,22 +37946,22 @@
         <v>551.5584115776708</v>
       </c>
       <c r="M43" t="n">
-        <v>360.1865051497969</v>
+        <v>136.1433512451461</v>
       </c>
       <c r="N43" t="n">
         <v>132.9061666478888</v>
       </c>
       <c r="O43" t="n">
-        <v>122.7603563857526</v>
+        <v>546.6686889370469</v>
       </c>
       <c r="P43" t="n">
         <v>456.0597570114162</v>
       </c>
       <c r="Q43" t="n">
-        <v>242.6178072098078</v>
+        <v>130.2068560022453</v>
       </c>
       <c r="R43" t="n">
-        <v>17.84785696230656</v>
+        <v>17.84785696230657</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -38013,7 +38013,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>74.23275281018633</v>
+        <v>74.23275281018635</v>
       </c>
       <c r="J44" t="n">
         <v>164.3326071224433</v>
@@ -38022,10 +38022,10 @@
         <v>246.2919792427158</v>
       </c>
       <c r="L44" t="n">
-        <v>305.5469788771545</v>
+        <v>305.5469788771547</v>
       </c>
       <c r="M44" t="n">
-        <v>339.9798866008468</v>
+        <v>339.9798866008471</v>
       </c>
       <c r="N44" t="n">
         <v>345.4811166040772</v>
@@ -38092,10 +38092,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>35.6678749285946</v>
       </c>
       <c r="J45" t="n">
-        <v>79.80531418618924</v>
+        <v>97.87537501106445</v>
       </c>
       <c r="K45" t="n">
         <v>167.284605254276</v>
@@ -38113,13 +38113,13 @@
         <v>246.4809186307605</v>
       </c>
       <c r="P45" t="n">
-        <v>197.8226673428217</v>
+        <v>197.8226673428219</v>
       </c>
       <c r="Q45" t="n">
         <v>132.2392142575563</v>
       </c>
       <c r="R45" t="n">
-        <v>64.32031050817636</v>
+        <v>10.58237475470628</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,7 +38174,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>148.8580923485222</v>
+        <v>61.40386490944154</v>
       </c>
       <c r="K46" t="n">
         <v>378.4392050642672</v>
@@ -38183,22 +38183,22 @@
         <v>551.5584115776708</v>
       </c>
       <c r="M46" t="n">
-        <v>600.2684696097047</v>
+        <v>136.1433512451461</v>
       </c>
       <c r="N46" t="n">
-        <v>243.841266804488</v>
+        <v>132.9061666478888</v>
       </c>
       <c r="O46" t="n">
-        <v>122.7603563857524</v>
+        <v>546.6686889370469</v>
       </c>
       <c r="P46" t="n">
-        <v>105.0426923949094</v>
+        <v>456.0597570114162</v>
       </c>
       <c r="Q46" t="n">
-        <v>242.6178072098078</v>
+        <v>130.2068560022453</v>
       </c>
       <c r="R46" t="n">
-        <v>17.84785696230656</v>
+        <v>17.84785696230657</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
